--- a/NN_results/COST_NN_results.xlsx
+++ b/NN_results/COST_NN_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>277.328125</v>
+        <v>305.7504577636719</v>
       </c>
       <c r="C2" t="n">
-        <v>274.1000061035156</v>
+        <v>310.3299865722656</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>278.1770324707031</v>
+        <v>307.3812866210938</v>
       </c>
       <c r="C3" t="n">
-        <v>275.6099853515625</v>
+        <v>304.8399963378906</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>279.636474609375</v>
+        <v>306.5772094726562</v>
       </c>
       <c r="C4" t="n">
-        <v>272.9700012207031</v>
+        <v>302.1400146484375</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>279.7222595214844</v>
+        <v>304.318115234375</v>
       </c>
       <c r="C5" t="n">
-        <v>275.6799926757812</v>
+        <v>299.739990234375</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>280.3798217773438</v>
+        <v>301.66015625</v>
       </c>
       <c r="C6" t="n">
-        <v>279.9200134277344</v>
+        <v>299.2099914550781</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>282.4830322265625</v>
+        <v>299.7793273925781</v>
       </c>
       <c r="C7" t="n">
-        <v>274.010009765625</v>
+        <v>302.760009765625</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>282.0989379882812</v>
+        <v>300.3341674804688</v>
       </c>
       <c r="C8" t="n">
-        <v>278.4599914550781</v>
+        <v>304.6300048828125</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>282.7457885742188</v>
+        <v>301.98681640625</v>
       </c>
       <c r="C9" t="n">
-        <v>292.3800048828125</v>
+        <v>304.9100036621094</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>288.2969360351562</v>
+        <v>303.2738342285156</v>
       </c>
       <c r="C10" t="n">
-        <v>294.489990234375</v>
+        <v>301.9700012207031</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>293.6973266601562</v>
+        <v>302.6967163085938</v>
       </c>
       <c r="C11" t="n">
-        <v>296.5700073242188</v>
+        <v>302.4299926757812</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>297.705322265625</v>
+        <v>302.1284484863281</v>
       </c>
       <c r="C12" t="n">
-        <v>294.760009765625</v>
+        <v>304.7999877929688</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>299.4309997558594</v>
+        <v>302.8485717773438</v>
       </c>
       <c r="C13" t="n">
-        <v>292.0499877929688</v>
+        <v>306.010009765625</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>299.1852722167969</v>
+        <v>304.0934753417969</v>
       </c>
       <c r="C14" t="n">
-        <v>296.1199951171875</v>
+        <v>309.5599975585938</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>299.7587585449219</v>
+        <v>306.415283203125</v>
       </c>
       <c r="C15" t="n">
-        <v>296.9700012207031</v>
+        <v>308.4700012207031</v>
       </c>
     </row>
     <row r="16">
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>300.7087707519531</v>
+        <v>307.599853515625</v>
       </c>
       <c r="C16" t="n">
-        <v>303.760009765625</v>
+        <v>308.2900085449219</v>
       </c>
     </row>
     <row r="17">
@@ -616,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>303.4675598144531</v>
+        <v>307.9551086425781</v>
       </c>
       <c r="C17" t="n">
-        <v>299</v>
+        <v>307.0899963378906</v>
       </c>
     </row>
     <row r="18">
@@ -627,10 +627,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>304.4601440429688</v>
+        <v>307.5162048339844</v>
       </c>
       <c r="C18" t="n">
-        <v>296.9999694824219</v>
+        <v>306.6400146484375</v>
       </c>
     </row>
     <row r="19">
@@ -638,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>304.0190124511719</v>
+        <v>306.9056701660156</v>
       </c>
       <c r="C19" t="n">
-        <v>290.6900024414062</v>
+        <v>310.75</v>
       </c>
     </row>
     <row r="20">
@@ -649,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>301.4773559570312</v>
+        <v>308.2329406738281</v>
       </c>
       <c r="C20" t="n">
-        <v>289.8900146484375</v>
+        <v>312.0400085449219</v>
       </c>
     </row>
     <row r="21">
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>298.8704223632812</v>
+        <v>310.0343627929688</v>
       </c>
       <c r="C21" t="n">
-        <v>291.8999938964844</v>
+        <v>307.1900024414062</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>297.7438659667969</v>
+        <v>309.1689758300781</v>
       </c>
       <c r="C22" t="n">
-        <v>288.6899719238281</v>
+        <v>305.5499877929688</v>
       </c>
     </row>
     <row r="23">
@@ -682,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>296.4507141113281</v>
+        <v>307.3111572265625</v>
       </c>
       <c r="C23" t="n">
-        <v>291.4100036621094</v>
+        <v>307.3299865722656</v>
       </c>
     </row>
     <row r="24">
@@ -693,10 +693,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>296.3367614746094</v>
+        <v>306.7693481445312</v>
       </c>
       <c r="C24" t="n">
-        <v>292.4299926757812</v>
+        <v>300.8299865722656</v>
       </c>
     </row>
     <row r="25">
@@ -704,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>296.9102172851562</v>
+        <v>304.0619506835938</v>
       </c>
       <c r="C25" t="n">
-        <v>287.8299560546875</v>
+        <v>298.7000122070312</v>
       </c>
     </row>
     <row r="26">
@@ -715,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>296.0265197753906</v>
+        <v>300.9583129882812</v>
       </c>
       <c r="C26" t="n">
-        <v>286.3599853515625</v>
+        <v>297.1799926757812</v>
       </c>
     </row>
     <row r="27">
@@ -726,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>294.5185546875</v>
+        <v>298.3967590332031</v>
       </c>
       <c r="C27" t="n">
-        <v>287.5700073242188</v>
+        <v>301.3599853515625</v>
       </c>
     </row>
     <row r="28">
@@ -737,10 +737,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>293.7333374023438</v>
+        <v>298.763671875</v>
       </c>
       <c r="C28" t="n">
-        <v>287.9100036621094</v>
+        <v>299.6099853515625</v>
       </c>
     </row>
     <row r="29">
@@ -748,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>293.5451965332031</v>
+        <v>298.8880615234375</v>
       </c>
       <c r="C29" t="n">
-        <v>288.5099792480469</v>
+        <v>299.5700073242188</v>
       </c>
     </row>
     <row r="30">
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>293.7646484375</v>
+        <v>298.7962646484375</v>
       </c>
       <c r="C30" t="n">
-        <v>288.260009765625</v>
+        <v>299.8999938964844</v>
       </c>
     </row>
     <row r="31">
@@ -770,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>293.9248962402344</v>
+        <v>298.8359985351562</v>
       </c>
       <c r="C31" t="n">
-        <v>285.9500122070312</v>
+        <v>300.4500122070312</v>
       </c>
     </row>
     <row r="32">
@@ -781,10 +781,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>293.2611083984375</v>
+        <v>299.13671875</v>
       </c>
       <c r="C32" t="n">
-        <v>288.1099853515625</v>
+        <v>301.2900085449219</v>
       </c>
     </row>
     <row r="33">
@@ -792,10 +792,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>293.2739868164062</v>
+        <v>299.7326965332031</v>
       </c>
       <c r="C33" t="n">
-        <v>283.9299926757812</v>
+        <v>298.0199890136719</v>
       </c>
     </row>
     <row r="34">
@@ -803,10 +803,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>292.1477661132812</v>
+        <v>298.7647094726562</v>
       </c>
       <c r="C34" t="n">
-        <v>285.1099853515625</v>
+        <v>300.5299987792969</v>
       </c>
     </row>
     <row r="35">
@@ -814,10 +814,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>291.4421997070312</v>
+        <v>298.882080078125</v>
       </c>
       <c r="C35" t="n">
-        <v>289</v>
+        <v>296.5599975585938</v>
       </c>
     </row>
     <row r="36">
@@ -825,10 +825,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>292.382080078125</v>
+        <v>297.5609436035156</v>
       </c>
       <c r="C36" t="n">
-        <v>291.6700134277344</v>
+        <v>301.5899963378906</v>
       </c>
     </row>
     <row r="37">
@@ -836,10 +836,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>294.3041687011719</v>
+        <v>298.5462646484375</v>
       </c>
       <c r="C37" t="n">
-        <v>293.4100036621094</v>
+        <v>303.2099914550781</v>
       </c>
     </row>
     <row r="38">
@@ -847,10 +847,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>296.3447265625</v>
+        <v>300.3887939453125</v>
       </c>
       <c r="C38" t="n">
-        <v>291.8900146484375</v>
+        <v>304.75</v>
       </c>
     </row>
     <row r="39">
@@ -858,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>297.2296142578125</v>
+        <v>302.2764282226562</v>
       </c>
       <c r="C39" t="n">
-        <v>296.8999938964844</v>
+        <v>305.739990234375</v>
       </c>
     </row>
     <row r="40">
@@ -869,10 +869,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>299.0346374511719</v>
+        <v>303.8153076171875</v>
       </c>
       <c r="C40" t="n">
-        <v>297.1400146484375</v>
+        <v>311.489990234375</v>
       </c>
     </row>
     <row r="41">
@@ -880,10 +880,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>300.6001586914062</v>
+        <v>307.0831909179688</v>
       </c>
       <c r="C41" t="n">
-        <v>297.6000061035156</v>
+        <v>316.2300109863281</v>
       </c>
     </row>
     <row r="42">
@@ -891,10 +891,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>301.7151184082031</v>
+        <v>311.4506530761719</v>
       </c>
       <c r="C42" t="n">
-        <v>297.5199890136719</v>
+        <v>316.3200073242188</v>
       </c>
     </row>
     <row r="43">
@@ -902,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>302.3277893066406</v>
+        <v>314.3583679199219</v>
       </c>
       <c r="C43" t="n">
-        <v>298.3900146484375</v>
+        <v>325.5400085449219</v>
       </c>
     </row>
     <row r="44">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>302.8720092773438</v>
+        <v>319.5468444824219</v>
       </c>
       <c r="C44" t="n">
-        <v>298.7799987792969</v>
+        <v>326.2300109863281</v>
       </c>
     </row>
     <row r="45">
@@ -924,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>303.3571472167969</v>
+        <v>323.6104431152344</v>
       </c>
       <c r="C45" t="n">
-        <v>302.3999938964844</v>
+        <v>322.9200134277344</v>
       </c>
     </row>
     <row r="46">
@@ -935,10 +935,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>304.7283630371094</v>
+        <v>324.4810791015625</v>
       </c>
       <c r="C46" t="n">
-        <v>302.8599853515625</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
@@ -946,10 +946,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>306.0598449707031</v>
+        <v>326.3262939453125</v>
       </c>
       <c r="C47" t="n">
-        <v>301.0799865722656</v>
+        <v>326.7000122070312</v>
       </c>
     </row>
     <row r="48">
@@ -957,10 +957,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>306.444580078125</v>
+        <v>327.3117065429688</v>
       </c>
       <c r="C48" t="n">
-        <v>299.9700012207031</v>
+        <v>326.2699890136719</v>
       </c>
     </row>
     <row r="49">
@@ -968,10 +968,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>306.1161499023438</v>
+        <v>327.5237426757812</v>
       </c>
       <c r="C49" t="n">
-        <v>297.3200073242188</v>
+        <v>324.7900085449219</v>
       </c>
     </row>
     <row r="50">
@@ -979,10 +979,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>304.9432983398438</v>
+        <v>326.8966064453125</v>
       </c>
       <c r="C50" t="n">
-        <v>297.0499877929688</v>
+        <v>326.510009765625</v>
       </c>
     </row>
     <row r="51">
@@ -990,10 +990,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>303.8160705566406</v>
+        <v>327.0051574707031</v>
       </c>
       <c r="C51" t="n">
-        <v>296.4999694824219</v>
+        <v>327.739990234375</v>
       </c>
     </row>
     <row r="52">
@@ -1001,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>302.9187622070312</v>
+        <v>327.7720336914062</v>
       </c>
       <c r="C52" t="n">
-        <v>298.9399719238281</v>
+        <v>328.2999877929688</v>
       </c>
     </row>
     <row r="53">
@@ -1012,10 +1012,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>303.0888061523438</v>
+        <v>328.6137390136719</v>
       </c>
       <c r="C53" t="n">
-        <v>295.8599853515625</v>
+        <v>326.1099853515625</v>
       </c>
     </row>
     <row r="54">
@@ -1023,10 +1023,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>302.6192321777344</v>
+        <v>328.2659606933594</v>
       </c>
       <c r="C54" t="n">
-        <v>299.8399658203125</v>
+        <v>325.7799987792969</v>
       </c>
     </row>
     <row r="55">
@@ -1034,10 +1034,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>303.2412109375</v>
+        <v>327.6160278320312</v>
       </c>
       <c r="C55" t="n">
-        <v>297.1099853515625</v>
+        <v>327.6000061035156</v>
       </c>
     </row>
     <row r="56">
@@ -1045,10 +1045,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>303.2013244628906</v>
+        <v>327.8958129882812</v>
       </c>
       <c r="C56" t="n">
-        <v>296.0899963378906</v>
+        <v>327.5700073242188</v>
       </c>
     </row>
     <row r="57">
@@ -1056,10 +1056,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>302.654052734375</v>
+        <v>328.3038024902344</v>
       </c>
       <c r="C57" t="n">
-        <v>296.8199768066406</v>
+        <v>326.1400146484375</v>
       </c>
     </row>
     <row r="58">
@@ -1067,10 +1067,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>302.3497924804688</v>
+        <v>327.9917602539062</v>
       </c>
       <c r="C58" t="n">
-        <v>299.1799926757812</v>
+        <v>324.8200073242188</v>
       </c>
     </row>
     <row r="59">
@@ -1078,10 +1078,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>302.9198608398438</v>
+        <v>327.0827026367188</v>
       </c>
       <c r="C59" t="n">
-        <v>301.5700073242188</v>
+        <v>325.5299987792969</v>
       </c>
     </row>
     <row r="60">
@@ -1089,10 +1089,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>304.2562866210938</v>
+        <v>326.6688537597656</v>
       </c>
       <c r="C60" t="n">
-        <v>305.2099914550781</v>
+        <v>329.3200073242188</v>
       </c>
     </row>
     <row r="61">
@@ -1100,10 +1100,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>306.406982421875</v>
+        <v>328.0631103515625</v>
       </c>
       <c r="C61" t="n">
-        <v>302.6199951171875</v>
+        <v>339.7900085449219</v>
       </c>
     </row>
     <row r="62">
@@ -1111,10 +1111,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>307.36474609375</v>
+        <v>333.502685546875</v>
       </c>
       <c r="C62" t="n">
-        <v>300.8399963378906</v>
+        <v>339.9700012207031</v>
       </c>
     </row>
     <row r="63">
@@ -1122,10 +1122,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>307.1584167480469</v>
+        <v>337.9210205078125</v>
       </c>
       <c r="C63" t="n">
-        <v>300.5</v>
+        <v>343.3099975585938</v>
       </c>
     </row>
     <row r="64">
@@ -1133,10 +1133,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>306.592041015625</v>
+        <v>341.6324462890625</v>
       </c>
       <c r="C64" t="n">
-        <v>302.8999938964844</v>
+        <v>340.9100036621094</v>
       </c>
     </row>
     <row r="65">
@@ -1144,10 +1144,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>306.79931640625</v>
+        <v>342.9434509277344</v>
       </c>
       <c r="C65" t="n">
-        <v>304.5899963378906</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66">
@@ -1155,10 +1155,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>307.6681518554688</v>
+        <v>342.8659057617188</v>
       </c>
       <c r="C66" t="n">
-        <v>303.6600036621094</v>
+        <v>332.4299926757812</v>
       </c>
     </row>
     <row r="67">
@@ -1166,10 +1166,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>308.1966552734375</v>
+        <v>339.6381530761719</v>
       </c>
       <c r="C67" t="n">
-        <v>304.5399780273438</v>
+        <v>336.760009765625</v>
       </c>
     </row>
     <row r="68">
@@ -1177,10 +1177,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>308.687744140625</v>
+        <v>338.4581298828125</v>
       </c>
       <c r="C68" t="n">
-        <v>302.239990234375</v>
+        <v>335.7000122070312</v>
       </c>
     </row>
     <row r="69">
@@ -1188,10 +1188,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>308.3899841308594</v>
+        <v>337.932373046875</v>
       </c>
       <c r="C69" t="n">
-        <v>300.5700073242188</v>
+        <v>336.2799987792969</v>
       </c>
     </row>
     <row r="70">
@@ -1199,10 +1199,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>307.4798278808594</v>
+        <v>337.9197387695312</v>
       </c>
       <c r="C70" t="n">
-        <v>300.2699890136719</v>
+        <v>339.9599914550781</v>
       </c>
     </row>
     <row r="71">
@@ -1210,10 +1210,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>306.5899047851562</v>
+        <v>339.4287414550781</v>
       </c>
       <c r="C71" t="n">
-        <v>299.3099975585938</v>
+        <v>340.75</v>
       </c>
     </row>
     <row r="72">
@@ -1221,10 +1221,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>305.7252197265625</v>
+        <v>341.0646667480469</v>
       </c>
       <c r="C72" t="n">
-        <v>299.0499877929688</v>
+        <v>340.8999938964844</v>
       </c>
     </row>
     <row r="73">
@@ -1232,10 +1232,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>305.0621337890625</v>
+        <v>342.1517028808594</v>
       </c>
       <c r="C73" t="n">
-        <v>301.2399597167969</v>
+        <v>340.8699951171875</v>
       </c>
     </row>
     <row r="74">
@@ -1243,10 +1243,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>305.2895812988281</v>
+        <v>342.69287109375</v>
       </c>
       <c r="C74" t="n">
-        <v>300.760009765625</v>
+        <v>344.6099853515625</v>
       </c>
     </row>
     <row r="75">
@@ -1254,10 +1254,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>305.57080078125</v>
+        <v>344.3493957519531</v>
       </c>
       <c r="C75" t="n">
-        <v>299.8099975585938</v>
+        <v>344.1300048828125</v>
       </c>
     </row>
     <row r="76">
@@ -1265,10 +1265,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>305.4863891601562</v>
+        <v>345.5436096191406</v>
       </c>
       <c r="C76" t="n">
-        <v>297.3900146484375</v>
+        <v>344.7099914550781</v>
       </c>
     </row>
     <row r="77">
@@ -1276,10 +1276,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>304.6183471679688</v>
+        <v>346.3787841796875</v>
       </c>
       <c r="C77" t="n">
-        <v>295.6700134277344</v>
+        <v>344.2699890136719</v>
       </c>
     </row>
     <row r="78">
@@ -1287,10 +1287,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>303.2863159179688</v>
+        <v>346.6723327636719</v>
       </c>
       <c r="C78" t="n">
-        <v>296.5199890136719</v>
+        <v>346.3599853515625</v>
       </c>
     </row>
     <row r="79">
@@ -1298,10 +1298,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>302.4910278320312</v>
+        <v>347.5249938964844</v>
       </c>
       <c r="C79" t="n">
-        <v>293.1000061035156</v>
+        <v>348.3699951171875</v>
       </c>
     </row>
     <row r="80">
@@ -1309,10 +1309,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>301.1136169433594</v>
+        <v>348.9986877441406</v>
       </c>
       <c r="C80" t="n">
-        <v>294.9500122070312</v>
+        <v>347.6600036621094</v>
       </c>
     </row>
     <row r="81">
@@ -1320,10 +1320,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>300.5308532714844</v>
+        <v>349.8322143554688</v>
       </c>
       <c r="C81" t="n">
-        <v>295.1600036621094</v>
+        <v>351.3800048828125</v>
       </c>
     </row>
     <row r="82">
@@ -1331,10 +1331,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>300.4434204101562</v>
+        <v>351.5710754394531</v>
       </c>
       <c r="C82" t="n">
-        <v>295.7799682617188</v>
+        <v>358.8599853515625</v>
       </c>
     </row>
     <row r="83">
@@ -1342,10 +1342,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>300.6947021484375</v>
+        <v>355.7253723144531</v>
       </c>
       <c r="C83" t="n">
-        <v>295.2999877929688</v>
+        <v>348.2999877929688</v>
       </c>
     </row>
     <row r="84">
@@ -1353,10 +1353,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>300.802001953125</v>
+        <v>355.1585083007812</v>
       </c>
       <c r="C84" t="n">
-        <v>297.3399963378906</v>
+        <v>346.5700073242188</v>
       </c>
     </row>
     <row r="85">
@@ -1364,10 +1364,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>301.4260559082031</v>
+        <v>352.8020629882812</v>
       </c>
       <c r="C85" t="n">
-        <v>291.8699951171875</v>
+        <v>338.8599853515625</v>
       </c>
     </row>
     <row r="86">
@@ -1375,10 +1375,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>300.3722839355469</v>
+        <v>348.0472412109375</v>
       </c>
       <c r="C86" t="n">
-        <v>293.5</v>
+        <v>346.4299926757812</v>
       </c>
     </row>
     <row r="87">
@@ -1386,10 +1386,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>299.6295471191406</v>
+        <v>347.2138977050781</v>
       </c>
       <c r="C87" t="n">
-        <v>295.5499572753906</v>
+        <v>339.5299987792969</v>
       </c>
     </row>
     <row r="88">
@@ -1397,10 +1397,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>299.8731994628906</v>
+        <v>345.2041320800781</v>
       </c>
       <c r="C88" t="n">
-        <v>291.8699951171875</v>
+        <v>339.1300048828125</v>
       </c>
     </row>
     <row r="89">
@@ -1408,10 +1408,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>299.2164916992188</v>
+        <v>343.2941589355469</v>
       </c>
       <c r="C89" t="n">
-        <v>293.7099914550781</v>
+        <v>342.9200134277344</v>
       </c>
     </row>
     <row r="90">
@@ -1419,10 +1419,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>299.0390014648438</v>
+        <v>343.5524291992188</v>
       </c>
       <c r="C90" t="n">
-        <v>294.8299560546875</v>
+        <v>343.9100036621094</v>
       </c>
     </row>
     <row r="91">
@@ -1430,10 +1430,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>299.4141540527344</v>
+        <v>344.6638793945312</v>
       </c>
       <c r="C91" t="n">
-        <v>293.3099975585938</v>
+        <v>343.7300109863281</v>
       </c>
     </row>
     <row r="92">
@@ -1441,10 +1441,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>299.3586730957031</v>
+        <v>345.4576416015625</v>
       </c>
       <c r="C92" t="n">
-        <v>294.2300109863281</v>
+        <v>338.8800048828125</v>
       </c>
     </row>
     <row r="93">
@@ -1452,10 +1452,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>299.4583740234375</v>
+        <v>344.011474609375</v>
       </c>
       <c r="C93" t="n">
-        <v>295.7300109863281</v>
+        <v>335.9599914550781</v>
       </c>
     </row>
     <row r="94">
@@ -1463,10 +1463,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>300.0300903320312</v>
+        <v>341.3849487304688</v>
       </c>
       <c r="C94" t="n">
-        <v>294.1099853515625</v>
+        <v>339.5700073242188</v>
       </c>
     </row>
     <row r="95">
@@ -1474,10 +1474,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>300.0639343261719</v>
+        <v>340.8461303710938</v>
       </c>
       <c r="C95" t="n">
-        <v>295.1400146484375</v>
+        <v>344.4500122070312</v>
       </c>
     </row>
     <row r="96">
@@ -1485,10 +1485,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>300.2287292480469</v>
+        <v>342.9603576660156</v>
       </c>
       <c r="C96" t="n">
-        <v>293.9200134277344</v>
+        <v>344.6300048828125</v>
       </c>
     </row>
     <row r="97">
@@ -1496,10 +1496,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>300.0232543945312</v>
+        <v>344.9944458007812</v>
       </c>
       <c r="C97" t="n">
-        <v>291.4899597167969</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98">
@@ -1507,10 +1507,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>299.0409851074219</v>
+        <v>347.0825500488281</v>
       </c>
       <c r="C98" t="n">
-        <v>291.7300109863281</v>
+        <v>342.5799865722656</v>
       </c>
     </row>
     <row r="99">
@@ -1518,10 +1518,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>298.2242431640625</v>
+        <v>346.7775268554688</v>
       </c>
       <c r="C99" t="n">
-        <v>291.8099975585938</v>
+        <v>349.6199951171875</v>
       </c>
     </row>
     <row r="100">
@@ -1529,10 +1529,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>297.764892578125</v>
+        <v>348.6135559082031</v>
       </c>
       <c r="C100" t="n">
-        <v>291.3500061035156</v>
+        <v>352.1400146484375</v>
       </c>
     </row>
     <row r="101">
@@ -1540,10 +1540,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>297.4169311523438</v>
+        <v>351.3880920410156</v>
       </c>
       <c r="C101" t="n">
-        <v>294.6900024414062</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102">
@@ -1551,10 +1551,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>298.2313537597656</v>
+        <v>354.4273681640625</v>
       </c>
       <c r="C102" t="n">
-        <v>299.4200134277344</v>
+        <v>358.4599914550781</v>
       </c>
     </row>
     <row r="103">
@@ -1562,10 +1562,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>300.5364074707031</v>
+        <v>357.7075500488281</v>
       </c>
       <c r="C103" t="n">
-        <v>297.239990234375</v>
+        <v>355.010009765625</v>
       </c>
     </row>
     <row r="104">
@@ -1573,10 +1573,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>301.8207397460938</v>
+        <v>358.6543579101562</v>
       </c>
       <c r="C104" t="n">
-        <v>299.8699951171875</v>
+        <v>358.5799865722656</v>
       </c>
     </row>
     <row r="105">
@@ -1584,10 +1584,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>303.1374816894531</v>
+        <v>359.9476928710938</v>
       </c>
       <c r="C105" t="n">
-        <v>299.7499694824219</v>
+        <v>358.3500061035156</v>
       </c>
     </row>
     <row r="106">
@@ -1595,10 +1595,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>304.0249328613281</v>
+        <v>360.8939514160156</v>
       </c>
       <c r="C106" t="n">
-        <v>300.8200073242188</v>
+        <v>363.0199890136719</v>
       </c>
     </row>
     <row r="107">
@@ -1606,10 +1606,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>304.8217163085938</v>
+        <v>363.1016845703125</v>
       </c>
       <c r="C107" t="n">
-        <v>303.0299987792969</v>
+        <v>365.0899963378906</v>
       </c>
     </row>
     <row r="108">
@@ -1617,10 +1617,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>305.9869079589844</v>
+        <v>365.6487426757812</v>
       </c>
       <c r="C108" t="n">
-        <v>304.6799926757812</v>
+        <v>369.4599914550781</v>
       </c>
     </row>
     <row r="109">
@@ -1628,10 +1628,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>307.3677673339844</v>
+        <v>368.9291687011719</v>
       </c>
       <c r="C109" t="n">
-        <v>313.260009765625</v>
+        <v>376.4800109863281</v>
       </c>
     </row>
     <row r="110">
@@ -1639,10 +1639,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>310.7344970703125</v>
+        <v>373.7384033203125</v>
       </c>
       <c r="C110" t="n">
-        <v>311.8900146484375</v>
+        <v>380.6799926757812</v>
       </c>
     </row>
     <row r="111">
@@ -1650,10 +1650,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>313.2491149902344</v>
+        <v>378.7756958007812</v>
       </c>
       <c r="C111" t="n">
-        <v>312.8800048828125</v>
+        <v>378.3399963378906</v>
       </c>
     </row>
     <row r="112">
@@ -1661,10 +1661,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>314.97412109375</v>
+        <v>381.3858947753906</v>
       </c>
       <c r="C112" t="n">
-        <v>310.510009765625</v>
+        <v>376.5799865722656</v>
       </c>
     </row>
     <row r="113">
@@ -1672,10 +1672,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>315.3614196777344</v>
+        <v>381.8807678222656</v>
       </c>
       <c r="C113" t="n">
-        <v>309.4500122070312</v>
+        <v>381.5400085449219</v>
       </c>
     </row>
     <row r="114">
@@ -1683,10 +1683,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>314.9766235351562</v>
+        <v>383.3629455566406</v>
       </c>
       <c r="C114" t="n">
-        <v>310.8500061035156</v>
+        <v>375.5599975585938</v>
       </c>
     </row>
     <row r="115">
@@ -1694,10 +1694,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>314.8593444824219</v>
+        <v>382.7507934570312</v>
       </c>
       <c r="C115" t="n">
-        <v>309.5799865722656</v>
+        <v>378.3099975585938</v>
       </c>
     </row>
     <row r="116">
@@ -1705,10 +1705,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>314.5664672851562</v>
+        <v>382.6095275878906</v>
       </c>
       <c r="C116" t="n">
-        <v>309.4700012207031</v>
+        <v>377.8200073242188</v>
       </c>
     </row>
     <row r="117">
@@ -1716,10 +1716,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>314.27880859375</v>
+        <v>382.5556945800781</v>
       </c>
       <c r="C117" t="n">
-        <v>305.5199890136719</v>
+        <v>375.75</v>
       </c>
     </row>
     <row r="118">
@@ -1727,10 +1727,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>313.0554809570312</v>
+        <v>381.8384704589844</v>
       </c>
       <c r="C118" t="n">
-        <v>302</v>
+        <v>374.6000061035156</v>
       </c>
     </row>
     <row r="119">
@@ -1738,10 +1738,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>310.9491577148438</v>
+        <v>380.7584838867188</v>
       </c>
       <c r="C119" t="n">
-        <v>304.8999938964844</v>
+        <v>370.7099914550781</v>
       </c>
     </row>
     <row r="120">
@@ -1749,10 +1749,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>309.9695434570312</v>
+        <v>378.6212768554688</v>
       </c>
       <c r="C120" t="n">
-        <v>308.9500122070312</v>
+        <v>372.7200012207031</v>
       </c>
     </row>
     <row r="121">
@@ -1760,10 +1760,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>310.7605285644531</v>
+        <v>377.5518493652344</v>
       </c>
       <c r="C121" t="n">
-        <v>310.6099853515625</v>
+        <v>364.9599914550781</v>
       </c>
     </row>
     <row r="122">
@@ -1771,10 +1771,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>312.2734069824219</v>
+        <v>374.5169067382812</v>
       </c>
       <c r="C122" t="n">
-        <v>313.6300048828125</v>
+        <v>364.8599853515625</v>
       </c>
     </row>
     <row r="123">
@@ -1782,10 +1782,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>314.28857421875</v>
+        <v>371.8072204589844</v>
       </c>
       <c r="C123" t="n">
-        <v>313.7900085449219</v>
+        <v>357.6199951171875</v>
       </c>
     </row>
     <row r="124">
@@ -1793,10 +1793,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>315.8643798828125</v>
+        <v>367.5987243652344</v>
       </c>
       <c r="C124" t="n">
-        <v>310.6799926757812</v>
+        <v>364.3900146484375</v>
       </c>
     </row>
     <row r="125">
@@ -1804,10 +1804,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>316.0403137207031</v>
+        <v>366.7205810546875</v>
       </c>
       <c r="C125" t="n">
-        <v>315.1199951171875</v>
+        <v>371.9599914550781</v>
       </c>
     </row>
     <row r="126">
@@ -1815,10 +1815,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>316.8584594726562</v>
+        <v>369.7938537597656</v>
       </c>
       <c r="C126" t="n">
-        <v>318.2000122070312</v>
+        <v>376.1700134277344</v>
       </c>
     </row>
     <row r="127">
@@ -1826,10 +1826,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>318.4418029785156</v>
+        <v>374.2716369628906</v>
       </c>
       <c r="C127" t="n">
-        <v>318.3099975585938</v>
+        <v>385.2300109863281</v>
       </c>
     </row>
     <row r="128">
@@ -1837,10 +1837,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>319.8271789550781</v>
+        <v>380.5781860351562</v>
       </c>
       <c r="C128" t="n">
-        <v>322.0499877929688</v>
+        <v>385.6600036621094</v>
       </c>
     </row>
     <row r="129">
@@ -1848,10 +1848,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>321.6395874023438</v>
+        <v>385.4061584472656</v>
       </c>
       <c r="C129" t="n">
-        <v>323.0199890136719</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130">
@@ -1859,10 +1859,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>323.3030395507812</v>
+        <v>381.3367614746094</v>
       </c>
       <c r="C130" t="n">
-        <v>324.0799865722656</v>
+        <v>366.6199951171875</v>
       </c>
     </row>
     <row r="131">
@@ -1870,10 +1870,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>324.6965637207031</v>
+        <v>376.5298461914062</v>
       </c>
       <c r="C131" t="n">
-        <v>321.9500122070312</v>
+        <v>372.9200134277344</v>
       </c>
     </row>
     <row r="132">
@@ -1881,10 +1881,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>325.1446533203125</v>
+        <v>375.5289306640625</v>
       </c>
       <c r="C132" t="n">
-        <v>313.6199951171875</v>
+        <v>375.7099914550781</v>
       </c>
     </row>
     <row r="133">
@@ -1892,10 +1892,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>323.2602844238281</v>
+        <v>376.9781188964844</v>
       </c>
       <c r="C133" t="n">
-        <v>304.8699951171875</v>
+        <v>378.8399963378906</v>
       </c>
     </row>
     <row r="134">
@@ -1903,10 +1903,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>318.9927673339844</v>
+        <v>379.5617980957031</v>
       </c>
       <c r="C134" t="n">
-        <v>305.6900024414062</v>
+        <v>379.7900085449219</v>
       </c>
     </row>
     <row r="135">
@@ -1914,10 +1914,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>315.2526550292969</v>
+        <v>381.8381042480469</v>
       </c>
       <c r="C135" t="n">
-        <v>293.1300048828125</v>
+        <v>381.9200134277344</v>
       </c>
     </row>
     <row r="136">
@@ -1925,10 +1925,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>309.4844665527344</v>
+        <v>383.9621276855469</v>
       </c>
       <c r="C136" t="n">
-        <v>281.1400146484375</v>
+        <v>382.2300109863281</v>
       </c>
     </row>
     <row r="137">
@@ -1936,10 +1936,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>301.1759033203125</v>
+        <v>385.4830627441406</v>
       </c>
       <c r="C137" t="n">
-        <v>309.1400146484375</v>
+        <v>383.5400085449219</v>
       </c>
     </row>
     <row r="138">
@@ -1947,10 +1947,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>302.7443542480469</v>
+        <v>386.7933044433594</v>
       </c>
       <c r="C138" t="n">
-        <v>302.7300109863281</v>
+        <v>381.1199951171875</v>
       </c>
     </row>
     <row r="139">
@@ -1958,10 +1958,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>305.0513916015625</v>
+        <v>386.860107421875</v>
       </c>
       <c r="C139" t="n">
-        <v>320.739990234375</v>
+        <v>381.7099914550781</v>
       </c>
     </row>
     <row r="140">
@@ -1969,10 +1969,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>311.58056640625</v>
+        <v>386.7464599609375</v>
       </c>
       <c r="C140" t="n">
-        <v>315.760009765625</v>
+        <v>384.2200012207031</v>
       </c>
     </row>
     <row r="141">
@@ -1980,10 +1980,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>315.7591552734375</v>
+        <v>387.486083984375</v>
       </c>
       <c r="C141" t="n">
-        <v>311.3399963378906</v>
+        <v>387.75</v>
       </c>
     </row>
     <row r="142">
@@ -1991,10 +1991,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>316.8016357421875</v>
+        <v>389.4065856933594</v>
       </c>
       <c r="C142" t="n">
-        <v>301.9800109863281</v>
+        <v>388.3900146484375</v>
       </c>
     </row>
     <row r="143">
@@ -2002,10 +2002,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>314.2300720214844</v>
+        <v>391.2441711425781</v>
       </c>
       <c r="C143" t="n">
-        <v>309.3999938964844</v>
+        <v>391.7699890136719</v>
       </c>
     </row>
     <row r="144">
@@ -2013,10 +2013,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>313.2109680175781</v>
+        <v>393.5242919921875</v>
       </c>
       <c r="C144" t="n">
-        <v>297.4299926757812</v>
+        <v>387.5599975585938</v>
       </c>
     </row>
     <row r="145">
@@ -2024,10 +2024,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>309.9242553710938</v>
+        <v>393.8843688964844</v>
       </c>
       <c r="C145" t="n">
-        <v>279.8500061035156</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="146">
@@ -2035,10 +2035,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>301.8438415527344</v>
+        <v>392.2458801269531</v>
       </c>
       <c r="C146" t="n">
-        <v>302.2699890136719</v>
+        <v>374.0499877929688</v>
       </c>
     </row>
     <row r="147">
@@ -2046,10 +2046,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>301.1398010253906</v>
+        <v>387.4955139160156</v>
       </c>
       <c r="C147" t="n">
-        <v>283.1799621582031</v>
+        <v>373.4299926757812</v>
       </c>
     </row>
     <row r="148">
@@ -2057,10 +2057,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>297.4310607910156</v>
+        <v>383.1135864257812</v>
       </c>
       <c r="C148" t="n">
-        <v>306.989990234375</v>
+        <v>373.3299865722656</v>
       </c>
     </row>
     <row r="149">
@@ -2068,10 +2068,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>301.0481567382812</v>
+        <v>380.2983703613281</v>
       </c>
       <c r="C149" t="n">
-        <v>307.5</v>
+        <v>377.6000061035156</v>
       </c>
     </row>
     <row r="150">
@@ -2079,10 +2079,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>305.6885986328125</v>
+        <v>380.2750549316406</v>
       </c>
       <c r="C150" t="n">
-        <v>305.2200012207031</v>
+        <v>374.2900085449219</v>
       </c>
     </row>
     <row r="151">
@@ -2090,10 +2090,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>308.2825927734375</v>
+        <v>379.8914184570312</v>
       </c>
       <c r="C151" t="n">
-        <v>290.4200134277344</v>
+        <v>372.7900085449219</v>
       </c>
     </row>
     <row r="152">
@@ -2101,10 +2101,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>305.2924499511719</v>
+        <v>378.9035339355469</v>
       </c>
       <c r="C152" t="n">
-        <v>285.5299682617188</v>
+        <v>375.1000061035156</v>
       </c>
     </row>
     <row r="153">
@@ -2112,10 +2112,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>300.0253295898438</v>
+        <v>378.8440856933594</v>
       </c>
       <c r="C153" t="n">
-        <v>284.9400024414062</v>
+        <v>374.3800048828125</v>
       </c>
     </row>
     <row r="154">
@@ -2123,10 +2123,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>295.5636901855469</v>
+        <v>378.8571472167969</v>
       </c>
       <c r="C154" t="n">
-        <v>280.8599853515625</v>
+        <v>371.8800048828125</v>
       </c>
     </row>
     <row r="155">
@@ -2134,10 +2134,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>291.5722351074219</v>
+        <v>378.0078430175781</v>
       </c>
       <c r="C155" t="n">
-        <v>292.2999572753906</v>
+        <v>369.4400024414062</v>
       </c>
     </row>
     <row r="156">
@@ -2145,10 +2145,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>292.7366943359375</v>
+        <v>376.3424682617188</v>
       </c>
       <c r="C156" t="n">
-        <v>284.3299865722656</v>
+        <v>370.2900085449219</v>
       </c>
     </row>
     <row r="157">
@@ -2156,10 +2156,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>292.3811340332031</v>
+        <v>375.2995300292969</v>
       </c>
       <c r="C157" t="n">
-        <v>291.1199951171875</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158">
@@ -2167,10 +2167,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>293.7648315429688</v>
+        <v>373.6737976074219</v>
       </c>
       <c r="C158" t="n">
-        <v>285.1300048828125</v>
+        <v>364.9700012207031</v>
       </c>
     </row>
     <row r="159">
@@ -2178,10 +2178,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>293.2471618652344</v>
+        <v>371.6795349121094</v>
       </c>
       <c r="C159" t="n">
-        <v>286.7799987792969</v>
+        <v>362.0299987792969</v>
       </c>
     </row>
     <row r="160">
@@ -2189,10 +2189,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>292.8525085449219</v>
+        <v>369.2163696289062</v>
       </c>
       <c r="C160" t="n">
-        <v>291.4800109863281</v>
+        <v>361.8900146484375</v>
       </c>
     </row>
     <row r="161">
@@ -2200,10 +2200,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>294.16650390625</v>
+        <v>367.3897399902344</v>
       </c>
       <c r="C161" t="n">
-        <v>288.6499938964844</v>
+        <v>364.5799865722656</v>
       </c>
     </row>
     <row r="162">
@@ -2211,10 +2211,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>294.6133422851562</v>
+        <v>367.3148498535156</v>
       </c>
       <c r="C162" t="n">
-        <v>305.1199951171875</v>
+        <v>371.0599975585938</v>
       </c>
     </row>
     <row r="163">
@@ -2222,10 +2222,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>299.7598266601562</v>
+        <v>370.0107116699219</v>
       </c>
       <c r="C163" t="n">
-        <v>303.6300048828125</v>
+        <v>372.7200012207031</v>
       </c>
     </row>
     <row r="164">
@@ -2233,10 +2233,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>303.9476928710938</v>
+        <v>373.083251953125</v>
       </c>
       <c r="C164" t="n">
-        <v>305.9700012207031</v>
+        <v>374.4500122070312</v>
       </c>
     </row>
     <row r="165">
@@ -2244,10 +2244,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>307.0799255371094</v>
+        <v>375.7377624511719</v>
       </c>
       <c r="C165" t="n">
-        <v>300.010009765625</v>
+        <v>376.7799987792969</v>
       </c>
     </row>
     <row r="166">
@@ -2255,10 +2255,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>307.2666625976562</v>
+        <v>378.1872863769531</v>
       </c>
       <c r="C166" t="n">
-        <v>299.6199951171875</v>
+        <v>380.1499938964844</v>
       </c>
     </row>
     <row r="167">
@@ -2266,10 +2266,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>306.4489135742188</v>
+        <v>380.9451904296875</v>
       </c>
       <c r="C167" t="n">
-        <v>314.1400146484375</v>
+        <v>375.739990234375</v>
       </c>
     </row>
     <row r="168">
@@ -2277,10 +2277,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>309.7008056640625</v>
+        <v>381.4345397949219</v>
       </c>
       <c r="C168" t="n">
-        <v>310.2699584960938</v>
+        <v>370.0199890136719</v>
       </c>
     </row>
     <row r="169">
@@ -2288,10 +2288,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>312.1121826171875</v>
+        <v>379.1786193847656</v>
       </c>
       <c r="C169" t="n">
-        <v>321.5599670410156</v>
+        <v>367.9200134277344</v>
       </c>
     </row>
     <row r="170">
@@ -2299,10 +2299,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>316.3988037109375</v>
+        <v>376.2007446289062</v>
       </c>
       <c r="C170" t="n">
-        <v>317.9200134277344</v>
+        <v>369.9400024414062</v>
       </c>
     </row>
     <row r="171">
@@ -2310,10 +2310,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>319.0186462402344</v>
+        <v>374.7659912109375</v>
       </c>
       <c r="C171" t="n">
-        <v>312.0799865722656</v>
+        <v>364.010009765625</v>
       </c>
     </row>
     <row r="172">
@@ -2321,10 +2321,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>318.9275207519531</v>
+        <v>372.2257690429688</v>
       </c>
       <c r="C172" t="n">
-        <v>301.3299560546875</v>
+        <v>364.2000122070312</v>
       </c>
     </row>
     <row r="173">
@@ -2332,10 +2332,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>315.33935546875</v>
+        <v>370.1910095214844</v>
       </c>
       <c r="C173" t="n">
-        <v>309.4200134277344</v>
+        <v>366.9500122070312</v>
       </c>
     </row>
     <row r="174">
@@ -2343,10 +2343,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>313.7109985351562</v>
+        <v>369.9597778320312</v>
       </c>
       <c r="C174" t="n">
-        <v>305.3999938964844</v>
+        <v>362.3500061035156</v>
       </c>
     </row>
     <row r="175">
@@ -2354,10 +2354,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>312.2600708007812</v>
+        <v>368.6869201660156</v>
       </c>
       <c r="C175" t="n">
-        <v>310.5499877929688</v>
+        <v>362.1600036621094</v>
       </c>
     </row>
     <row r="176">
@@ -2365,10 +2365,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>312.6290283203125</v>
+        <v>367.40087890625</v>
       </c>
       <c r="C176" t="n">
-        <v>308.7799682617188</v>
+        <v>354.4700012207031</v>
       </c>
     </row>
     <row r="177">
@@ -2376,10 +2376,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>312.9871215820312</v>
+        <v>363.8331298828125</v>
       </c>
       <c r="C177" t="n">
-        <v>304.9500122070312</v>
+        <v>361.2999877929688</v>
       </c>
     </row>
     <row r="178">
@@ -2387,10 +2387,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>312.1821899414062</v>
+        <v>363.2528686523438</v>
       </c>
       <c r="C178" t="n">
-        <v>307.0899963378906</v>
+        <v>362.7999877929688</v>
       </c>
     </row>
     <row r="179">
@@ -2398,10 +2398,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>311.7988891601562</v>
+        <v>364.3230285644531</v>
       </c>
       <c r="C179" t="n">
-        <v>303</v>
+        <v>362.2999877929688</v>
       </c>
     </row>
     <row r="180">
@@ -2409,10 +2409,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>310.59033203125</v>
+        <v>365.2070922851562</v>
       </c>
       <c r="C180" t="n">
-        <v>301.9199829101562</v>
+        <v>361.8800048828125</v>
       </c>
     </row>
     <row r="181">
@@ -2420,10 +2420,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>309.1724243164062</v>
+        <v>365.5231628417969</v>
       </c>
       <c r="C181" t="n">
-        <v>304.4899597167969</v>
+        <v>364.9800109863281</v>
       </c>
     </row>
     <row r="182">
@@ -2431,10 +2431,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>308.8295593261719</v>
+        <v>366.6829833984375</v>
       </c>
       <c r="C182" t="n">
-        <v>307.9200134277344</v>
+        <v>356.3900146484375</v>
       </c>
     </row>
     <row r="183">
@@ -2442,10 +2442,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>309.8688659667969</v>
+        <v>364.662353515625</v>
       </c>
       <c r="C183" t="n">
-        <v>308.8900146484375</v>
+        <v>357.0599975585938</v>
       </c>
     </row>
     <row r="184">
@@ -2453,10 +2453,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>311.2439575195312</v>
+        <v>362.6366882324219</v>
       </c>
       <c r="C184" t="n">
-        <v>305</v>
+        <v>352.4299926757812</v>
       </c>
     </row>
     <row r="185">
@@ -2464,10 +2464,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>311.2261352539062</v>
+        <v>359.7279052734375</v>
       </c>
       <c r="C185" t="n">
-        <v>305.9400024414062</v>
+        <v>350.5199890136719</v>
       </c>
     </row>
     <row r="186">
@@ -2475,10 +2475,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>311.02001953125</v>
+        <v>356.8629455566406</v>
       </c>
       <c r="C186" t="n">
-        <v>310.3299865722656</v>
+        <v>355.5799865722656</v>
       </c>
     </row>
     <row r="187">
@@ -2486,10 +2486,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>312.0177307128906</v>
+        <v>356.8607482910156</v>
       </c>
       <c r="C187" t="n">
-        <v>304.8399963378906</v>
+        <v>355.2099914550781</v>
       </c>
     </row>
     <row r="188">
@@ -2497,10 +2497,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>311.6398315429688</v>
+        <v>357.5038452148438</v>
       </c>
       <c r="C188" t="n">
-        <v>302.1400146484375</v>
+        <v>355.8500061035156</v>
       </c>
     </row>
     <row r="189">
@@ -2508,10 +2508,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>310.1945190429688</v>
+        <v>358.2286682128906</v>
       </c>
       <c r="C189" t="n">
-        <v>299.739990234375</v>
+        <v>355.1700134277344</v>
       </c>
     </row>
     <row r="190">
@@ -2519,10 +2519,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>308.2017822265625</v>
+        <v>358.4483642578125</v>
       </c>
       <c r="C190" t="n">
-        <v>299.2099609375</v>
+        <v>359.8299865722656</v>
       </c>
     </row>
     <row r="191">
@@ -2530,10 +2530,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>306.5060729980469</v>
+        <v>360.1490173339844</v>
       </c>
       <c r="C191" t="n">
-        <v>302.760009765625</v>
+        <v>359.5599975585938</v>
       </c>
     </row>
     <row r="192">
@@ -2541,10 +2541,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>306.436279296875</v>
+        <v>361.5931701660156</v>
       </c>
       <c r="C192" t="n">
-        <v>304.6299743652344</v>
+        <v>356.1199951171875</v>
       </c>
     </row>
     <row r="193">
@@ -2552,10 +2552,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>307.4053649902344</v>
+        <v>361.1895141601562</v>
       </c>
       <c r="C193" t="n">
-        <v>304.9100036621094</v>
+        <v>352.2000122070312</v>
       </c>
     </row>
     <row r="194">
@@ -2563,10 +2563,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>308.4195556640625</v>
+        <v>359.001953125</v>
       </c>
       <c r="C194" t="n">
-        <v>301.9700012207031</v>
+        <v>352.75</v>
       </c>
     </row>
     <row r="195">
@@ -2574,10 +2574,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>308.2896118164062</v>
+        <v>357.3291931152344</v>
       </c>
       <c r="C195" t="n">
-        <v>302.4299926757812</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196">
@@ -2585,10 +2585,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>307.9674682617188</v>
+        <v>356.8944396972656</v>
       </c>
       <c r="C196" t="n">
-        <v>304.7999877929688</v>
+        <v>358.0400085449219</v>
       </c>
     </row>
     <row r="197">
@@ -2596,10 +2596,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>308.3642883300781</v>
+        <v>358.4036865234375</v>
       </c>
       <c r="C197" t="n">
-        <v>306.010009765625</v>
+        <v>356.9200134277344</v>
       </c>
     </row>
     <row r="198">
@@ -2607,10 +2607,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>309.2008361816406</v>
+        <v>359.4622192382812</v>
       </c>
       <c r="C198" t="n">
-        <v>309.5599975585938</v>
+        <v>354.7699890136719</v>
       </c>
     </row>
     <row r="199">
@@ -2618,10 +2618,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>310.8632202148438</v>
+        <v>359.1844482421875</v>
       </c>
       <c r="C199" t="n">
-        <v>308.4700012207031</v>
+        <v>350.2099914550781</v>
       </c>
     </row>
     <row r="200">
@@ -2629,10 +2629,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>311.9613952636719</v>
+        <v>356.9868774414062</v>
       </c>
       <c r="C200" t="n">
-        <v>308.2900085449219</v>
+        <v>342.1499938964844</v>
       </c>
     </row>
     <row r="201">
@@ -2640,10 +2640,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>312.4937744140625</v>
+        <v>352.0853881835938</v>
       </c>
       <c r="C201" t="n">
-        <v>307.0899963378906</v>
+        <v>340.7000122070312</v>
       </c>
     </row>
     <row r="202">
@@ -2651,10 +2651,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>312.3886108398438</v>
+        <v>347.6360168457031</v>
       </c>
       <c r="C202" t="n">
-        <v>306.6400146484375</v>
+        <v>333.8999938964844</v>
       </c>
     </row>
     <row r="203">
@@ -2662,10 +2662,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>312.0141296386719</v>
+        <v>342.3728942871094</v>
       </c>
       <c r="C203" t="n">
-        <v>310.75</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204">
@@ -2673,10 +2673,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>312.7739868164062</v>
+        <v>337.6023864746094</v>
       </c>
       <c r="C204" t="n">
-        <v>312.0400085449219</v>
+        <v>331.7699890136719</v>
       </c>
     </row>
     <row r="205">
@@ -2684,10 +2684,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>314.0066833496094</v>
+        <v>334.98046875</v>
       </c>
       <c r="C205" t="n">
-        <v>307.1900024414062</v>
+        <v>328.4599914550781</v>
       </c>
     </row>
     <row r="206">
@@ -2695,10 +2695,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>313.7402648925781</v>
+        <v>332.5513610839844</v>
       </c>
       <c r="C206" t="n">
-        <v>305.5499877929688</v>
+        <v>323.9200134277344</v>
       </c>
     </row>
     <row r="207">
@@ -2706,10 +2706,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>312.6364135742188</v>
+        <v>329.1816101074219</v>
       </c>
       <c r="C207" t="n">
-        <v>307.3299865722656</v>
+        <v>319.0400085449219</v>
       </c>
     </row>
     <row r="208">
@@ -2717,10 +2717,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>312.087158203125</v>
+        <v>324.8428955078125</v>
       </c>
       <c r="C208" t="n">
-        <v>300.8299865722656</v>
+        <v>317.3200073242188</v>
       </c>
     </row>
     <row r="209">
@@ -2728,10 +2728,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>310.1651306152344</v>
+        <v>321.19873046875</v>
       </c>
       <c r="C209" t="n">
-        <v>298.7000122070312</v>
+        <v>311.4200134277344</v>
       </c>
     </row>
     <row r="210">
@@ -2739,10 +2739,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>307.7660827636719</v>
+        <v>316.7275695800781</v>
       </c>
       <c r="C210" t="n">
-        <v>297.1799926757812</v>
+        <v>318.7799987792969</v>
       </c>
     </row>
     <row r="211">
@@ -2750,10 +2750,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>305.5230407714844</v>
+        <v>316.7190856933594</v>
       </c>
       <c r="C211" t="n">
-        <v>301.3599853515625</v>
+        <v>323.8299865722656</v>
       </c>
     </row>
     <row r="212">
@@ -2761,10 +2761,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>305.214111328125</v>
+        <v>319.8765563964844</v>
       </c>
       <c r="C212" t="n">
-        <v>299.6099853515625</v>
+        <v>328.6499938964844</v>
       </c>
     </row>
     <row r="213">
@@ -2772,10 +2772,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>305.09326171875</v>
+        <v>324.3877563476562</v>
       </c>
       <c r="C213" t="n">
-        <v>299.5700073242188</v>
+        <v>331.1400146484375</v>
       </c>
     </row>
     <row r="214">
@@ -2783,10 +2783,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>305.0022888183594</v>
+        <v>328.4036560058594</v>
       </c>
       <c r="C214" t="n">
-        <v>299.8999938964844</v>
+        <v>330.510009765625</v>
       </c>
     </row>
     <row r="215">
@@ -2794,10 +2794,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>305.0222778320312</v>
+        <v>330.5160522460938</v>
       </c>
       <c r="C215" t="n">
-        <v>300.4500122070312</v>
+        <v>327.25</v>
       </c>
     </row>
     <row r="216">
@@ -2805,10 +2805,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>305.2175598144531</v>
+        <v>330.1219177246094</v>
       </c>
       <c r="C216" t="n">
-        <v>301.2899780273438</v>
+        <v>329.1900024414062</v>
       </c>
     </row>
     <row r="217">
@@ -2816,10 +2816,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>305.6369934082031</v>
+        <v>330.0904846191406</v>
       </c>
       <c r="C217" t="n">
-        <v>298.0199890136719</v>
+        <v>322.9800109863281</v>
       </c>
     </row>
     <row r="218">
@@ -2827,10 +2827,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>305.0553588867188</v>
+        <v>327.7887878417969</v>
       </c>
       <c r="C218" t="n">
-        <v>300.5299987792969</v>
+        <v>328.9100036621094</v>
       </c>
     </row>
     <row r="219">
@@ -2838,10 +2838,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>305.0604858398438</v>
+        <v>328.1139526367188</v>
       </c>
       <c r="C219" t="n">
-        <v>296.5599975585938</v>
+        <v>334.489990234375</v>
       </c>
     </row>
     <row r="220">
@@ -2849,10 +2849,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>304.1248474121094</v>
+        <v>331.2509765625</v>
       </c>
       <c r="C220" t="n">
-        <v>301.5899963378906</v>
+        <v>340.3399963378906</v>
       </c>
     </row>
     <row r="221">
@@ -2860,10 +2860,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>304.6329956054688</v>
+        <v>336.1242370605469</v>
       </c>
       <c r="C221" t="n">
-        <v>303.2099914550781</v>
+        <v>338.0400085449219</v>
       </c>
     </row>
     <row r="222">
@@ -2871,10 +2871,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>305.8944396972656</v>
+        <v>338.6395568847656</v>
       </c>
       <c r="C222" t="n">
-        <v>304.75</v>
+        <v>346.3399963378906</v>
       </c>
     </row>
     <row r="223">
@@ -2882,10 +2882,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>307.3834533691406</v>
+        <v>342.7932434082031</v>
       </c>
       <c r="C223" t="n">
-        <v>305.739990234375</v>
+        <v>352.0199890136719</v>
       </c>
     </row>
     <row r="224">
@@ -2893,10 +2893,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>308.726318359375</v>
+        <v>348.0948181152344</v>
       </c>
       <c r="C224" t="n">
-        <v>311.4899597167969</v>
+        <v>356.1499938964844</v>
       </c>
     </row>
     <row r="225">
@@ -2904,10 +2904,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>311.1660766601562</v>
+        <v>353.2934875488281</v>
       </c>
       <c r="C225" t="n">
-        <v>316.22998046875</v>
+        <v>349.75</v>
       </c>
     </row>
     <row r="226">
@@ -2915,10 +2915,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>314.4219970703125</v>
+        <v>354.2347106933594</v>
       </c>
       <c r="C226" t="n">
-        <v>316.3199768066406</v>
+        <v>352.4800109863281</v>
       </c>
     </row>
     <row r="227">
@@ -2926,10 +2926,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>316.925537109375</v>
+        <v>354.7501220703125</v>
       </c>
       <c r="C227" t="n">
-        <v>325.5400085449219</v>
+        <v>354.9400024414062</v>
       </c>
     </row>
     <row r="228">
@@ -2937,10 +2937,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>320.7135620117188</v>
+        <v>356.030029296875</v>
       </c>
       <c r="C228" t="n">
-        <v>326.2300109863281</v>
+        <v>360.8200073242188</v>
       </c>
     </row>
     <row r="229">
@@ -2948,10 +2948,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>323.9396667480469</v>
+        <v>359.2462463378906</v>
       </c>
       <c r="C229" t="n">
-        <v>322.9200134277344</v>
+        <v>360.1199951171875</v>
       </c>
     </row>
     <row r="230">
@@ -2959,10 +2959,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>325.3148498535156</v>
+        <v>361.5851135253906</v>
       </c>
       <c r="C230" t="n">
-        <v>328</v>
+        <v>358.8099975585938</v>
       </c>
     </row>
     <row r="231">
@@ -2970,10 +2970,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>326.893310546875</v>
+        <v>362.3491516113281</v>
       </c>
       <c r="C231" t="n">
-        <v>326.7000122070312</v>
+        <v>361.2200012207031</v>
       </c>
     </row>
     <row r="232">
@@ -2981,10 +2981,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>327.8712463378906</v>
+        <v>363.3193359375</v>
       </c>
       <c r="C232" t="n">
-        <v>326.2699890136719</v>
+        <v>363.2099914550781</v>
       </c>
     </row>
     <row r="233">
@@ -2992,10 +2992,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>328.31640625</v>
+        <v>364.7906799316406</v>
       </c>
       <c r="C233" t="n">
-        <v>324.7900085449219</v>
+        <v>364.8099975585938</v>
       </c>
     </row>
     <row r="234">
@@ -3003,10 +3003,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>328.1688842773438</v>
+        <v>366.4697570800781</v>
       </c>
       <c r="C234" t="n">
-        <v>326.510009765625</v>
+        <v>365.2099914550781</v>
       </c>
     </row>
     <row r="235">
@@ -3014,10 +3014,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>328.2601013183594</v>
+        <v>367.7638244628906</v>
       </c>
       <c r="C235" t="n">
-        <v>327.7399597167969</v>
+        <v>363.1700134277344</v>
       </c>
     </row>
     <row r="236">
@@ -3025,10 +3025,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>328.6979675292969</v>
+        <v>367.7915344238281</v>
       </c>
       <c r="C236" t="n">
-        <v>328.2999877929688</v>
+        <v>368.7999877929688</v>
       </c>
     </row>
     <row r="237">
@@ -3036,10 +3036,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>329.2613220214844</v>
+        <v>369.4540100097656</v>
       </c>
       <c r="C237" t="n">
-        <v>326.1099853515625</v>
+        <v>370.7200012207031</v>
       </c>
     </row>
     <row r="238">
@@ -3047,10 +3047,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>329.243896484375</v>
+        <v>371.7341613769531</v>
       </c>
       <c r="C238" t="n">
-        <v>325.7799987792969</v>
+        <v>369.5499877929688</v>
       </c>
     </row>
     <row r="239">
@@ -3058,10 +3058,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>328.962646484375</v>
+        <v>372.9700012207031</v>
       </c>
       <c r="C239" t="n">
-        <v>327.6000061035156</v>
+        <v>371.7300109863281</v>
       </c>
     </row>
     <row r="240">
@@ -3069,10 +3069,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>329.0720520019531</v>
+        <v>374.2350769042969</v>
       </c>
       <c r="C240" t="n">
-        <v>327.5700073242188</v>
+        <v>374.0899963378906</v>
       </c>
     </row>
     <row r="241">
@@ -3080,10 +3080,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>329.2877807617188</v>
+        <v>375.9435729980469</v>
       </c>
       <c r="C241" t="n">
-        <v>326.1400146484375</v>
+        <v>371.260009765625</v>
       </c>
     </row>
     <row r="242">
@@ -3091,10 +3091,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>329.1696472167969</v>
+        <v>376.2555847167969</v>
       </c>
       <c r="C242" t="n">
-        <v>324.8200073242188</v>
+        <v>373.2799987792969</v>
       </c>
     </row>
     <row r="243">
@@ -3102,10 +3102,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>328.6799011230469</v>
+        <v>376.7453918457031</v>
       </c>
       <c r="C243" t="n">
-        <v>325.5299682617188</v>
+        <v>368.5199890136719</v>
       </c>
     </row>
     <row r="244">
@@ -3113,10 +3113,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>328.3510437011719</v>
+        <v>375.546630859375</v>
       </c>
       <c r="C244" t="n">
-        <v>329.3200073242188</v>
+        <v>370.2099914550781</v>
       </c>
     </row>
     <row r="245">
@@ -3124,10 +3124,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>328.9960021972656</v>
+        <v>374.8281555175781</v>
       </c>
       <c r="C245" t="n">
-        <v>339.7900085449219</v>
+        <v>369.5899963378906</v>
       </c>
     </row>
     <row r="246">
@@ -3135,10 +3135,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>332.0062255859375</v>
+        <v>374.3261108398438</v>
       </c>
       <c r="C246" t="n">
-        <v>339.9700012207031</v>
+        <v>373.5400085449219</v>
       </c>
     </row>
     <row r="247">
@@ -3146,10 +3146,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>334.9680786132812</v>
+        <v>375.3942565917969</v>
       </c>
       <c r="C247" t="n">
-        <v>343.3099975585938</v>
+        <v>372.0899963378906</v>
       </c>
     </row>
     <row r="248">
@@ -3157,10 +3157,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>337.7447814941406</v>
+        <v>376.0501708984375</v>
       </c>
       <c r="C248" t="n">
-        <v>340.9100036621094</v>
+        <v>379.3200073242188</v>
       </c>
     </row>
     <row r="249">
@@ -3168,10 +3168,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>339.2979125976562</v>
+        <v>378.7816467285156</v>
       </c>
       <c r="C249" t="n">
-        <v>340</v>
+        <v>375.2900085449219</v>
       </c>
     </row>
     <row r="250">
@@ -3179,10 +3179,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>339.9035034179688</v>
+        <v>379.8603820800781</v>
       </c>
       <c r="C250" t="n">
-        <v>332.4299926757812</v>
+        <v>372.5</v>
       </c>
     </row>
     <row r="251">
@@ -3190,10 +3190,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>338.6390075683594</v>
+        <v>379.1079406738281</v>
       </c>
       <c r="C251" t="n">
-        <v>336.760009765625</v>
+        <v>382.760009765625</v>
       </c>
     </row>
     <row r="252">
@@ -3201,10 +3201,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>337.8623657226562</v>
+        <v>381.5846557617188</v>
       </c>
       <c r="C252" t="n">
-        <v>335.7000122070312</v>
+        <v>384.3200073242188</v>
       </c>
     </row>
     <row r="253">
@@ -3212,10 +3212,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>337.2890319824219</v>
+        <v>384.7814331054688</v>
       </c>
       <c r="C253" t="n">
-        <v>336.2799682617188</v>
+        <v>381.4800109863281</v>
       </c>
     </row>
     <row r="254">
@@ -3223,10 +3223,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>337.0436401367188</v>
+        <v>386.1118469238281</v>
       </c>
       <c r="C254" t="n">
-        <v>339.9599914550781</v>
+        <v>378.1799926757812</v>
       </c>
     </row>
     <row r="255">
@@ -3234,10 +3234,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>337.6845703125</v>
+        <v>385.3572692871094</v>
       </c>
       <c r="C255" t="n">
-        <v>340.7499694824219</v>
+        <v>372.2000122070312</v>
       </c>
     </row>
     <row r="256">
@@ -3245,10 +3245,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>338.6173400878906</v>
+        <v>382.3035278320312</v>
       </c>
       <c r="C256" t="n">
-        <v>340.8999938964844</v>
+        <v>379.5299987792969</v>
       </c>
     </row>
     <row r="257">
@@ -3256,10 +3256,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>339.4324645996094</v>
+        <v>382.0656127929688</v>
       </c>
       <c r="C257" t="n">
-        <v>340.8699951171875</v>
+        <v>384.4200134277344</v>
       </c>
     </row>
     <row r="258">
@@ -3267,10 +3267,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>339.9962463378906</v>
+        <v>384.451171875</v>
       </c>
       <c r="C258" t="n">
-        <v>344.6099853515625</v>
+        <v>383.9599914550781</v>
       </c>
     </row>
     <row r="259">
@@ -3278,10 +3278,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>341.0317993164062</v>
+        <v>386.5777587890625</v>
       </c>
       <c r="C259" t="n">
-        <v>344.1299743652344</v>
+        <v>382.8099975585938</v>
       </c>
     </row>
     <row r="260">
@@ -3289,10 +3289,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>341.8991394042969</v>
+        <v>387.4696350097656</v>
       </c>
       <c r="C260" t="n">
-        <v>344.7099914550781</v>
+        <v>379.6600036621094</v>
       </c>
     </row>
     <row r="261">
@@ -3300,10 +3300,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>342.6033020019531</v>
+        <v>386.6909790039062</v>
       </c>
       <c r="C261" t="n">
-        <v>344.2699890136719</v>
+        <v>383.5799865722656</v>
       </c>
     </row>
     <row r="262">
@@ -3311,10 +3311,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>343.0115356445312</v>
+        <v>387.0040283203125</v>
       </c>
       <c r="C262" t="n">
-        <v>346.3599853515625</v>
+        <v>380.7200012207031</v>
       </c>
     </row>
     <row r="263">
@@ -3322,10 +3322,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>343.6002502441406</v>
+        <v>386.6699523925781</v>
       </c>
       <c r="C263" t="n">
-        <v>348.3699951171875</v>
+        <v>383.4500122070312</v>
       </c>
     </row>
     <row r="264">
@@ -3333,10 +3333,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>344.4778442382812</v>
+        <v>387.1107177734375</v>
       </c>
       <c r="C264" t="n">
-        <v>347.6600036621094</v>
+        <v>385.3800048828125</v>
       </c>
     </row>
     <row r="265">
@@ -3344,10 +3344,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>345.1304931640625</v>
+        <v>388.290771484375</v>
       </c>
       <c r="C265" t="n">
-        <v>351.3800048828125</v>
+        <v>385.6199951171875</v>
       </c>
     </row>
     <row r="266">
@@ -3355,10 +3355,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>346.1917419433594</v>
+        <v>389.3693237304688</v>
       </c>
       <c r="C266" t="n">
-        <v>358.8599853515625</v>
+        <v>387.5</v>
       </c>
     </row>
     <row r="267">
@@ -3366,10 +3366,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>348.4017639160156</v>
+        <v>390.6614074707031</v>
       </c>
       <c r="C267" t="n">
-        <v>348.2999877929688</v>
+        <v>378.2699890136719</v>
       </c>
     </row>
     <row r="268">
@@ -3377,10 +3377,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>348.7660217285156</v>
+        <v>388.6163635253906</v>
       </c>
       <c r="C268" t="n">
-        <v>346.5699768066406</v>
+        <v>378.2300109863281</v>
       </c>
     </row>
     <row r="269">
@@ -3388,10 +3388,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>348.0937805175781</v>
+        <v>386.1810302734375</v>
       </c>
       <c r="C269" t="n">
-        <v>338.8599853515625</v>
+        <v>380.5899963378906</v>
       </c>
     </row>
     <row r="270">
@@ -3399,10 +3399,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>345.8991088867188</v>
+        <v>385.2893371582031</v>
       </c>
       <c r="C270" t="n">
-        <v>346.4299926757812</v>
+        <v>383.8699951171875</v>
       </c>
     </row>
     <row r="271">
@@ -3410,10 +3410,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>344.9502868652344</v>
+        <v>386.2460327148438</v>
       </c>
       <c r="C271" t="n">
-        <v>339.5299682617188</v>
+        <v>387.5199890136719</v>
       </c>
     </row>
     <row r="272">
@@ -3421,10 +3421,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>343.4925231933594</v>
+        <v>388.5766296386719</v>
       </c>
       <c r="C272" t="n">
-        <v>339.1300048828125</v>
+        <v>380.3999938964844</v>
       </c>
     </row>
     <row r="273">
@@ -3432,10 +3432,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>342.08203125</v>
+        <v>388.1722717285156</v>
       </c>
       <c r="C273" t="n">
-        <v>342.9200134277344</v>
+        <v>379.7000122070312</v>
       </c>
     </row>
     <row r="274">
@@ -3443,10 +3443,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>341.7059936523438</v>
+        <v>386.8023071289062</v>
       </c>
       <c r="C274" t="n">
-        <v>343.9099731445312</v>
+        <v>379.9599914550781</v>
       </c>
     </row>
     <row r="275">
@@ -3454,10 +3454,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>341.9668273925781</v>
+        <v>385.7573547363281</v>
       </c>
       <c r="C275" t="n">
-        <v>343.72998046875</v>
+        <v>383.010009765625</v>
       </c>
     </row>
     <row r="276">
@@ -3465,10 +3465,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>342.3350219726562</v>
+        <v>386.19140625</v>
       </c>
       <c r="C276" t="n">
-        <v>338.8800048828125</v>
+        <v>381.8299865722656</v>
       </c>
     </row>
     <row r="277">
@@ -3476,10 +3476,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>341.7549438476562</v>
+        <v>386.5249938964844</v>
       </c>
       <c r="C277" t="n">
-        <v>335.9599609375</v>
+        <v>383.760009765625</v>
       </c>
     </row>
     <row r="278">
@@ -3487,10 +3487,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>340.4167175292969</v>
+        <v>387.2994079589844</v>
       </c>
       <c r="C278" t="n">
-        <v>339.5700073242188</v>
+        <v>383.9100036621094</v>
       </c>
     </row>
     <row r="279">
@@ -3498,10 +3498,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>339.7997131347656</v>
+        <v>388.0075988769531</v>
       </c>
       <c r="C279" t="n">
-        <v>344.4499816894531</v>
+        <v>379.4100036621094</v>
       </c>
     </row>
     <row r="280">
@@ -3509,10 +3509,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>340.5129089355469</v>
+        <v>386.9851684570312</v>
       </c>
       <c r="C280" t="n">
-        <v>344.6299743652344</v>
+        <v>384.75</v>
       </c>
     </row>
     <row r="281">
@@ -3520,10 +3520,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>341.5361938476562</v>
+        <v>387.5249938964844</v>
       </c>
       <c r="C281" t="n">
-        <v>347</v>
+        <v>380.8800048828125</v>
       </c>
     </row>
     <row r="282">
@@ -3531,10 +3531,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>342.8196716308594</v>
+        <v>387.1543884277344</v>
       </c>
       <c r="C282" t="n">
-        <v>342.5799865722656</v>
+        <v>386.7999877929688</v>
       </c>
     </row>
     <row r="283">
@@ -3542,10 +3542,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>343.0874938964844</v>
+        <v>388.5176086425781</v>
       </c>
       <c r="C283" t="n">
-        <v>349.6199951171875</v>
+        <v>392.1799926757812</v>
       </c>
     </row>
     <row r="284">
@@ -3553,10 +3553,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>344.1805725097656</v>
+        <v>391.7309875488281</v>
       </c>
       <c r="C284" t="n">
-        <v>352.1400146484375</v>
+        <v>391.9700012207031</v>
       </c>
     </row>
     <row r="285">
@@ -3564,10 +3564,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>345.7537536621094</v>
+        <v>394.3490905761719</v>
       </c>
       <c r="C285" t="n">
-        <v>355</v>
+        <v>392.0700073242188</v>
       </c>
     </row>
     <row r="286">
@@ -3575,10 +3575,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>347.5950622558594</v>
+        <v>395.9438171386719</v>
       </c>
       <c r="C286" t="n">
-        <v>358.4599914550781</v>
+        <v>394.510009765625</v>
       </c>
     </row>
     <row r="287">
@@ -3586,10 +3586,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>349.6576843261719</v>
+        <v>397.5385437011719</v>
       </c>
       <c r="C287" t="n">
-        <v>355.010009765625</v>
+        <v>396.5400085449219</v>
       </c>
     </row>
     <row r="288">
@@ -3597,10 +3597,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>350.7748718261719</v>
+        <v>399.3284912109375</v>
       </c>
       <c r="C288" t="n">
-        <v>358.5799560546875</v>
+        <v>398.7900085449219</v>
       </c>
     </row>
     <row r="289">
@@ -3608,10 +3608,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>351.880859375</v>
+        <v>401.338623046875</v>
       </c>
       <c r="C289" t="n">
-        <v>358.3500061035156</v>
+        <v>395.6700134277344</v>
       </c>
     </row>
     <row r="290">
@@ -3619,10 +3619,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>352.7259521484375</v>
+        <v>401.8373413085938</v>
       </c>
       <c r="C290" t="n">
-        <v>363.0199890136719</v>
+        <v>394.5299987792969</v>
       </c>
     </row>
     <row r="291">
@@ -3630,10 +3630,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>354.0193786621094</v>
+        <v>401.3660278320312</v>
       </c>
       <c r="C291" t="n">
-        <v>365.0899963378906</v>
+        <v>398.9400024414062</v>
       </c>
     </row>
     <row r="292">
@@ -3641,10 +3641,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>355.5091247558594</v>
+        <v>402.1576232910156</v>
       </c>
       <c r="C292" t="n">
-        <v>369.4599609375</v>
+        <v>398.8599853515625</v>
       </c>
     </row>
     <row r="293">
@@ -3652,10 +3652,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>357.3793640136719</v>
+        <v>403.11669921875</v>
       </c>
       <c r="C293" t="n">
-        <v>376.4800109863281</v>
+        <v>404.6799926757812</v>
       </c>
     </row>
     <row r="294">
@@ -3663,10 +3663,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>359.9546813964844</v>
+        <v>405.5704956054688</v>
       </c>
       <c r="C294" t="n">
-        <v>380.6799926757812</v>
+        <v>407.1499938964844</v>
       </c>
     </row>
     <row r="295">
@@ -3674,10 +3674,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>362.7721862792969</v>
+        <v>408.4765319824219</v>
       </c>
       <c r="C295" t="n">
-        <v>378.3399963378906</v>
+        <v>412.3699951171875</v>
       </c>
     </row>
     <row r="296">
@@ -3685,10 +3685,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>364.7874755859375</v>
+        <v>412.1526489257812</v>
       </c>
       <c r="C296" t="n">
-        <v>376.5799865722656</v>
+        <v>407.8800048828125</v>
       </c>
     </row>
     <row r="297">
@@ -3696,10 +3696,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>365.9080200195312</v>
+        <v>413.6476745605469</v>
       </c>
       <c r="C297" t="n">
-        <v>381.5400085449219</v>
+        <v>407.0599975585938</v>
       </c>
     </row>
     <row r="298">
@@ -3707,10 +3707,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>367.1209106445312</v>
+        <v>413.7709045410156</v>
       </c>
       <c r="C298" t="n">
-        <v>375.5599975585938</v>
+        <v>409.9500122070312</v>
       </c>
     </row>
     <row r="299">
@@ -3718,10 +3718,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>367.4337768554688</v>
+        <v>414.3562316894531</v>
       </c>
       <c r="C299" t="n">
-        <v>378.3099670410156</v>
+        <v>411.8200073242188</v>
       </c>
     </row>
     <row r="300">
@@ -3729,10 +3729,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>367.7051086425781</v>
+        <v>415.5265197753906</v>
       </c>
       <c r="C300" t="n">
-        <v>377.8200073242188</v>
+        <v>410.3699951171875</v>
       </c>
     </row>
     <row r="301">
@@ -3740,10 +3740,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>367.8732299804688</v>
+        <v>416.1110534667969</v>
       </c>
       <c r="C301" t="n">
-        <v>375.75</v>
+        <v>414.1499938964844</v>
       </c>
     </row>
     <row r="302">
@@ -3751,10 +3751,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>367.7316589355469</v>
+        <v>417.4076843261719</v>
       </c>
       <c r="C302" t="n">
-        <v>374.6000061035156</v>
+        <v>416.239990234375</v>
       </c>
     </row>
     <row r="303">
@@ -3762,10 +3762,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>367.3660888671875</v>
+        <v>419.1781921386719</v>
       </c>
       <c r="C303" t="n">
-        <v>370.7099914550781</v>
+        <v>415.010009765625</v>
       </c>
     </row>
     <row r="304">
@@ -3773,10 +3773,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>366.5050659179688</v>
+        <v>420.2217407226562</v>
       </c>
       <c r="C304" t="n">
-        <v>372.7200012207031</v>
+        <v>417.5400085449219</v>
       </c>
     </row>
     <row r="305">
@@ -3784,10 +3784,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>365.87158203125</v>
+        <v>421.4360046386719</v>
       </c>
       <c r="C305" t="n">
-        <v>364.9599914550781</v>
+        <v>423.4299926757812</v>
       </c>
     </row>
     <row r="306">
@@ -3795,10 +3795,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>364.4490661621094</v>
+        <v>424.0407409667969</v>
       </c>
       <c r="C306" t="n">
-        <v>364.8599853515625</v>
+        <v>423.2300109863281</v>
       </c>
     </row>
     <row r="307">
@@ -3806,10 +3806,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>362.9597473144531</v>
+        <v>426.2989196777344</v>
       </c>
       <c r="C307" t="n">
-        <v>357.6199951171875</v>
+        <v>424.3399963378906</v>
       </c>
     </row>
     <row r="308">
@@ -3817,10 +3817,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>360.7301025390625</v>
+        <v>428.0709533691406</v>
       </c>
       <c r="C308" t="n">
-        <v>364.3900146484375</v>
+        <v>422.2200012207031</v>
       </c>
     </row>
     <row r="309">
@@ -3828,10 +3828,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>359.57666015625</v>
+        <v>428.63232421875</v>
       </c>
       <c r="C309" t="n">
-        <v>371.9599914550781</v>
+        <v>425.2799987792969</v>
       </c>
     </row>
     <row r="310">
@@ -3839,10 +3839,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>360.1278076171875</v>
+        <v>429.5005493164062</v>
       </c>
       <c r="C310" t="n">
-        <v>376.1700134277344</v>
+        <v>429.7200012207031</v>
       </c>
     </row>
     <row r="311">
@@ -3850,10 +3850,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>361.7368774414062</v>
+        <v>431.4792175292969</v>
       </c>
       <c r="C311" t="n">
-        <v>385.2300109863281</v>
+        <v>428.9200134277344</v>
       </c>
     </row>
     <row r="312">
@@ -3861,10 +3861,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>364.5175476074219</v>
+        <v>433.0604248046875</v>
       </c>
       <c r="C312" t="n">
-        <v>385.6600036621094</v>
+        <v>435.0700073242188</v>
       </c>
     </row>
     <row r="313">
@@ -3872,10 +3872,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>367.1491394042969</v>
+        <v>435.6624145507812</v>
       </c>
       <c r="C313" t="n">
-        <v>365</v>
+        <v>435.0400085449219</v>
       </c>
     </row>
     <row r="314">
@@ -3883,10 +3883,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>366.6741333007812</v>
+        <v>437.9025268554688</v>
       </c>
       <c r="C314" t="n">
-        <v>366.6199951171875</v>
+        <v>443.1900024414062</v>
       </c>
     </row>
     <row r="315">
@@ -3894,10 +3894,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>365.3047485351562</v>
+        <v>441.4785766601562</v>
       </c>
       <c r="C315" t="n">
-        <v>372.9200134277344</v>
+        <v>439.6300048828125</v>
       </c>
     </row>
     <row r="316">
@@ -3905,10 +3905,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>364.6958618164062</v>
+        <v>443.6616516113281</v>
       </c>
       <c r="C316" t="n">
-        <v>375.7099914550781</v>
+        <v>440.4700012207031</v>
       </c>
     </row>
     <row r="317">
@@ -3916,10 +3916,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>364.8794555664062</v>
+        <v>444.9769287109375</v>
       </c>
       <c r="C317" t="n">
-        <v>378.8399963378906</v>
+        <v>443.0299987792969</v>
       </c>
     </row>
     <row r="318">
@@ -3927,10 +3927,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>365.7162475585938</v>
+        <v>446.3502807617188</v>
       </c>
       <c r="C318" t="n">
-        <v>379.7900085449219</v>
+        <v>444.2999877929688</v>
       </c>
     </row>
     <row r="319">
@@ -3938,10 +3938,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>366.7357482910156</v>
+        <v>447.7462463378906</v>
       </c>
       <c r="C319" t="n">
-        <v>381.9199829101562</v>
+        <v>445.3600158691406</v>
       </c>
     </row>
     <row r="320">
@@ -3949,10 +3949,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>367.8737182617188</v>
+        <v>449.0541076660156</v>
       </c>
       <c r="C320" t="n">
-        <v>382.2300109863281</v>
+        <v>447.8200073242188</v>
       </c>
     </row>
     <row r="321">
@@ -3960,10 +3960,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>368.8711547851562</v>
+        <v>450.5950317382812</v>
       </c>
       <c r="C321" t="n">
-        <v>383.5400085449219</v>
+        <v>452.8599853515625</v>
       </c>
     </row>
     <row r="322">
@@ -3971,10 +3971,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>369.7843017578125</v>
+        <v>453.0365295410156</v>
       </c>
       <c r="C322" t="n">
-        <v>381.1199951171875</v>
+        <v>452.3399963378906</v>
       </c>
     </row>
     <row r="323">
@@ -3982,10 +3982,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>370.2205200195312</v>
+        <v>455.0400695800781</v>
       </c>
       <c r="C323" t="n">
-        <v>381.7099914550781</v>
+        <v>446.2100219726562</v>
       </c>
     </row>
     <row r="324">
@@ -3993,10 +3993,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>370.474609375</v>
+        <v>454.9140625</v>
       </c>
       <c r="C324" t="n">
-        <v>384.219970703125</v>
+        <v>454.2599792480469</v>
       </c>
     </row>
     <row r="325">
@@ -4004,10 +4004,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>370.9163208007812</v>
+        <v>455.9830932617188</v>
       </c>
       <c r="C325" t="n">
-        <v>387.75</v>
+        <v>458.9900207519531</v>
       </c>
     </row>
     <row r="326">
@@ -4015,10 +4015,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>371.7583618164062</v>
+        <v>458.3933715820312</v>
       </c>
       <c r="C326" t="n">
-        <v>388.3900146484375</v>
+        <v>454.9300231933594</v>
       </c>
     </row>
     <row r="327">
@@ -4026,10 +4026,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>372.66796875</v>
+        <v>459.7037353515625</v>
       </c>
       <c r="C327" t="n">
-        <v>391.7699890136719</v>
+        <v>451.7900390625</v>
       </c>
     </row>
     <row r="328">
@@ -4037,10 +4037,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>373.806884765625</v>
+        <v>459.5292053222656</v>
       </c>
       <c r="C328" t="n">
-        <v>387.5599670410156</v>
+        <v>451.2300109863281</v>
       </c>
     </row>
     <row r="329">
@@ -4048,10 +4048,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>374.3711242675781</v>
+        <v>458.7784423828125</v>
       </c>
       <c r="C329" t="n">
-        <v>383.4999694824219</v>
+        <v>449.3100280761719</v>
       </c>
     </row>
     <row r="330">
@@ -4059,10 +4059,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>374.1807556152344</v>
+        <v>457.6211853027344</v>
       </c>
       <c r="C330" t="n">
-        <v>374.0499877929688</v>
+        <v>450.3399963378906</v>
       </c>
     </row>
     <row r="331">
@@ -4070,10 +4070,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>372.6763916015625</v>
+        <v>456.8635864257812</v>
       </c>
       <c r="C331" t="n">
-        <v>373.4299621582031</v>
+        <v>455.9299926757812</v>
       </c>
     </row>
     <row r="332">
@@ -4081,10 +4081,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>370.8347778320312</v>
+        <v>457.7499084472656</v>
       </c>
       <c r="C332" t="n">
-        <v>373.3299865722656</v>
+        <v>455.489990234375</v>
       </c>
     </row>
     <row r="333">
@@ -4092,10 +4092,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>369.177001953125</v>
+        <v>458.8836669921875</v>
       </c>
       <c r="C333" t="n">
-        <v>377.6000061035156</v>
+        <v>456.52001953125</v>
       </c>
     </row>
     <row r="334">
@@ -4103,10 +4103,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>368.4150695800781</v>
+        <v>459.9937438964844</v>
       </c>
       <c r="C334" t="n">
-        <v>374.2899780273438</v>
+        <v>460.9700317382812</v>
       </c>
     </row>
     <row r="335">
@@ -4114,10 +4114,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>367.7284240722656</v>
+        <v>461.8217163085938</v>
       </c>
       <c r="C335" t="n">
-        <v>372.7900085449219</v>
+        <v>462.5500183105469</v>
       </c>
     </row>
     <row r="336">
@@ -4125,10 +4125,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>366.9916381835938</v>
+        <v>463.8168029785156</v>
       </c>
       <c r="C336" t="n">
-        <v>375.1000061035156</v>
+        <v>459.6000366210938</v>
       </c>
     </row>
     <row r="337">
@@ -4136,10 +4136,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>366.6510009765625</v>
+        <v>464.7088317871094</v>
       </c>
       <c r="C337" t="n">
-        <v>374.3799743652344</v>
+        <v>465.7000122070312</v>
       </c>
     </row>
     <row r="338">
@@ -4147,10 +4147,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>366.4291076660156</v>
+        <v>466.3375244140625</v>
       </c>
       <c r="C338" t="n">
-        <v>371.8800048828125</v>
+        <v>465.9400024414062</v>
       </c>
     </row>
     <row r="339">
@@ -4158,10 +4158,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>365.9664306640625</v>
+        <v>467.9424743652344</v>
       </c>
       <c r="C339" t="n">
-        <v>369.4400024414062</v>
+        <v>465.1600341796875</v>
       </c>
     </row>
     <row r="340">
@@ -4169,10 +4169,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>365.1764831542969</v>
+        <v>468.9668273925781</v>
       </c>
       <c r="C340" t="n">
-        <v>370.2900085449219</v>
+        <v>459.6600036621094</v>
       </c>
     </row>
     <row r="341">
@@ -4180,10 +4180,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>364.5146789550781</v>
+        <v>468.3467712402344</v>
       </c>
       <c r="C341" t="n">
-        <v>367</v>
+        <v>458.4100036621094</v>
       </c>
     </row>
     <row r="342">
@@ -4191,10 +4191,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>363.5943298339844</v>
+        <v>467.0154113769531</v>
       </c>
       <c r="C342" t="n">
-        <v>364.9700012207031</v>
+        <v>460.72998046875</v>
       </c>
     </row>
     <row r="343">
@@ -4202,10 +4202,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>362.4688415527344</v>
+        <v>466.310546875</v>
       </c>
       <c r="C343" t="n">
-        <v>362.0299987792969</v>
+        <v>463.3099975585938</v>
       </c>
     </row>
     <row r="344">
@@ -4213,10 +4213,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>361.0702819824219</v>
+        <v>466.6036987304688</v>
       </c>
       <c r="C344" t="n">
-        <v>361.8900146484375</v>
+        <v>459.510009765625</v>
       </c>
     </row>
     <row r="345">
@@ -4224,10 +4224,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>359.8084716796875</v>
+        <v>466.3297424316406</v>
       </c>
       <c r="C345" t="n">
-        <v>364.5799560546875</v>
+        <v>451.1400146484375</v>
       </c>
     </row>
     <row r="346">
@@ -4235,10 +4235,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>359.22314453125</v>
+        <v>463.9983215332031</v>
       </c>
       <c r="C346" t="n">
-        <v>371.0599975585938</v>
+        <v>452.1099548339844</v>
       </c>
     </row>
     <row r="347">
@@ -4246,10 +4246,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>359.908935546875</v>
+        <v>461.6796569824219</v>
       </c>
       <c r="C347" t="n">
-        <v>372.7200012207031</v>
+        <v>452.3299560546875</v>
       </c>
     </row>
     <row r="348">
@@ -4257,10 +4257,516 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>361.1261291503906</v>
+        <v>460.0495300292969</v>
       </c>
       <c r="C348" t="n">
-        <v>374.4500122070312</v>
+        <v>452.7799987792969</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>459.1694030761719</v>
+      </c>
+      <c r="C349" t="n">
+        <v>467.75</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>462.1426696777344</v>
+      </c>
+      <c r="C350" t="n">
+        <v>460.5599670410156</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>464.1078186035156</v>
+      </c>
+      <c r="C351" t="n">
+        <v>447.3499755859375</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>462.1091613769531</v>
+      </c>
+      <c r="C352" t="n">
+        <v>451.7900390625</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>460.1780700683594</v>
+      </c>
+      <c r="C353" t="n">
+        <v>449.3499755859375</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>458.3403015136719</v>
+      </c>
+      <c r="C354" t="n">
+        <v>448.3299865722656</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>456.7489624023438</v>
+      </c>
+      <c r="C355" t="n">
+        <v>440.1400146484375</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>453.6820373535156</v>
+      </c>
+      <c r="C356" t="n">
+        <v>446.2400207519531</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>452.2619018554688</v>
+      </c>
+      <c r="C357" t="n">
+        <v>449.3400268554688</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>452.5872802734375</v>
+      </c>
+      <c r="C358" t="n">
+        <v>452.8699951171875</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>454.2206115722656</v>
+      </c>
+      <c r="C359" t="n">
+        <v>451.8500061035156</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>455.5826110839844</v>
+      </c>
+      <c r="C360" t="n">
+        <v>449.7000122070312</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>455.9519348144531</v>
+      </c>
+      <c r="C361" t="n">
+        <v>446.8700256347656</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>455.2257080078125</v>
+      </c>
+      <c r="C362" t="n">
+        <v>445.2999877929688</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>453.9582824707031</v>
+      </c>
+      <c r="C363" t="n">
+        <v>450.6600341796875</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>454.1296997070312</v>
+      </c>
+      <c r="C364" t="n">
+        <v>452.3900451660156</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>455.2024536132812</v>
+      </c>
+      <c r="C365" t="n">
+        <v>461.9500122070312</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>458.4843444824219</v>
+      </c>
+      <c r="C366" t="n">
+        <v>467.0799865722656</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>462.8251342773438</v>
+      </c>
+      <c r="C367" t="n">
+        <v>469.7699890136719</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>466.9618225097656</v>
+      </c>
+      <c r="C368" t="n">
+        <v>477.2300415039062</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>471.5822143554688</v>
+      </c>
+      <c r="C369" t="n">
+        <v>481.9900207519531</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>476.2677612304688</v>
+      </c>
+      <c r="C370" t="n">
+        <v>490.1000061035156</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>481.4927062988281</v>
+      </c>
+      <c r="C371" t="n">
+        <v>485.530029296875</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>484.8182678222656</v>
+      </c>
+      <c r="C372" t="n">
+        <v>489.1100158691406</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>487.3946838378906</v>
+      </c>
+      <c r="C373" t="n">
+        <v>490.5299987792969</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>489.4835815429688</v>
+      </c>
+      <c r="C374" t="n">
+        <v>491.5400390625</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>491.1700744628906</v>
+      </c>
+      <c r="C375" t="n">
+        <v>491.8699951171875</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>492.4303283691406</v>
+      </c>
+      <c r="C376" t="n">
+        <v>496.989990234375</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>494.2192993164062</v>
+      </c>
+      <c r="C377" t="n">
+        <v>502.3299560546875</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>496.81005859375</v>
+      </c>
+      <c r="C378" t="n">
+        <v>515.6199951171875</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>501.4432678222656</v>
+      </c>
+      <c r="C379" t="n">
+        <v>513.1199951171875</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>505.4072265625</v>
+      </c>
+      <c r="C380" t="n">
+        <v>503.8100280761719</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>506.6743774414062</v>
+      </c>
+      <c r="C381" t="n">
+        <v>508.7099914550781</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>507.4851684570312</v>
+      </c>
+      <c r="C382" t="n">
+        <v>505.510009765625</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>507.5507202148438</v>
+      </c>
+      <c r="C383" t="n">
+        <v>512.1799926757812</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>508.4364013671875</v>
+      </c>
+      <c r="C384" t="n">
+        <v>517.1699829101562</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>510.3195190429688</v>
+      </c>
+      <c r="C385" t="n">
+        <v>519.8900146484375</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>512.6238403320312</v>
+      </c>
+      <c r="C386" t="n">
+        <v>526.719970703125</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>515.6589965820312</v>
+      </c>
+      <c r="C387" t="n">
+        <v>526.2899780273438</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>518.3081665039062</v>
+      </c>
+      <c r="C388" t="n">
+        <v>529.3699951171875</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>520.7305297851562</v>
+      </c>
+      <c r="C389" t="n">
+        <v>533.7899780273438</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>523.2733764648438</v>
+      </c>
+      <c r="C390" t="n">
+        <v>539.6500244140625</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>526.24169921875</v>
+      </c>
+      <c r="C391" t="n">
+        <v>545.260009765625</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>529.6070556640625</v>
+      </c>
+      <c r="C392" t="n">
+        <v>549.72998046875</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>533.1009521484375</v>
+      </c>
+      <c r="C393" t="n">
+        <v>546.1300048828125</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>535.5346069335938</v>
+      </c>
+      <c r="C394" t="n">
+        <v>554.8800048828125</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.814034029079806</v>
+        <v>6.395155813840722</v>
       </c>
     </row>
   </sheetData>

--- a/NN_results/COST_NN_results.xlsx
+++ b/NN_results/COST_NN_results.xlsx
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>305.7504577636719</v>
+        <v>310.9339904785156</v>
       </c>
       <c r="C2" t="n">
         <v>310.3299865722656</v>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>307.3812866210938</v>
+        <v>312.5534362792969</v>
       </c>
       <c r="C3" t="n">
         <v>304.8399963378906</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>306.5772094726562</v>
+        <v>311.6790771484375</v>
       </c>
       <c r="C4" t="n">
         <v>302.1400146484375</v>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>304.318115234375</v>
+        <v>309.600341796875</v>
       </c>
       <c r="C5" t="n">
         <v>299.739990234375</v>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>301.66015625</v>
+        <v>307.2021179199219</v>
       </c>
       <c r="C6" t="n">
         <v>299.2099914550781</v>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>299.7793273925781</v>
+        <v>305.4957580566406</v>
       </c>
       <c r="C7" t="n">
         <v>302.760009765625</v>
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>300.3341674804688</v>
+        <v>306.0261840820312</v>
       </c>
       <c r="C8" t="n">
         <v>304.6300048828125</v>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>301.98681640625</v>
+        <v>307.4679870605469</v>
       </c>
       <c r="C9" t="n">
         <v>304.9100036621094</v>
@@ -539,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>303.2738342285156</v>
+        <v>308.5604553222656</v>
       </c>
       <c r="C10" t="n">
         <v>301.9700012207031</v>
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>302.6967163085938</v>
+        <v>307.9589538574219</v>
       </c>
       <c r="C11" t="n">
         <v>302.4299926757812</v>
@@ -561,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>302.1284484863281</v>
+        <v>307.5009765625</v>
       </c>
       <c r="C12" t="n">
         <v>304.7999877929688</v>
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>302.8485717773438</v>
+        <v>308.23876953125</v>
       </c>
       <c r="C13" t="n">
         <v>306.010009765625</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>304.0934753417969</v>
+        <v>309.3741149902344</v>
       </c>
       <c r="C14" t="n">
         <v>309.5599975585938</v>
@@ -594,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>306.415283203125</v>
+        <v>311.5332336425781</v>
       </c>
       <c r="C15" t="n">
         <v>308.4700012207031</v>
@@ -605,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>307.599853515625</v>
+        <v>312.5684204101562</v>
       </c>
       <c r="C16" t="n">
         <v>308.2900085449219</v>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>307.9551086425781</v>
+        <v>312.9185791015625</v>
       </c>
       <c r="C17" t="n">
         <v>307.0899963378906</v>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>307.5162048339844</v>
+        <v>312.5579833984375</v>
       </c>
       <c r="C18" t="n">
         <v>306.6400146484375</v>
@@ -638,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>306.9056701660156</v>
+        <v>312.05078125</v>
       </c>
       <c r="C19" t="n">
         <v>310.75</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>308.2329406738281</v>
+        <v>313.3707275390625</v>
       </c>
       <c r="C20" t="n">
         <v>312.0400085449219</v>
@@ -660,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>310.0343627929688</v>
+        <v>315.0018615722656</v>
       </c>
       <c r="C21" t="n">
         <v>307.1900024414062</v>
@@ -671,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>309.1689758300781</v>
+        <v>314.0894470214844</v>
       </c>
       <c r="C22" t="n">
         <v>305.5499877929688</v>
@@ -682,7 +682,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>307.3111572265625</v>
+        <v>312.4331970214844</v>
       </c>
       <c r="C23" t="n">
         <v>307.3299865722656</v>
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>306.7693481445312</v>
+        <v>312.048583984375</v>
       </c>
       <c r="C24" t="n">
         <v>300.8299865722656</v>
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>304.0619506835938</v>
+        <v>309.449951171875</v>
       </c>
       <c r="C25" t="n">
         <v>298.7000122070312</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>300.9583129882812</v>
+        <v>306.5940551757812</v>
       </c>
       <c r="C26" t="n">
         <v>297.1799926757812</v>
@@ -726,7 +726,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>298.3967590332031</v>
+        <v>304.2327880859375</v>
       </c>
       <c r="C27" t="n">
         <v>301.3599853515625</v>
@@ -737,7 +737,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>298.763671875</v>
+        <v>304.5930480957031</v>
       </c>
       <c r="C28" t="n">
         <v>299.6099853515625</v>
@@ -748,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>298.8880615234375</v>
+        <v>304.5452880859375</v>
       </c>
       <c r="C29" t="n">
         <v>299.5700073242188</v>
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>298.7962646484375</v>
+        <v>304.3796691894531</v>
       </c>
       <c r="C30" t="n">
         <v>299.8999938964844</v>
@@ -770,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>298.8359985351562</v>
+        <v>304.4007873535156</v>
       </c>
       <c r="C31" t="n">
         <v>300.4500122070312</v>
@@ -781,7 +781,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>299.13671875</v>
+        <v>304.672607421875</v>
       </c>
       <c r="C32" t="n">
         <v>301.2900085449219</v>
@@ -792,7 +792,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>299.7326965332031</v>
+        <v>305.2179260253906</v>
       </c>
       <c r="C33" t="n">
         <v>298.0199890136719</v>
@@ -803,7 +803,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>298.7647094726562</v>
+        <v>304.2573852539062</v>
       </c>
       <c r="C34" t="n">
         <v>300.5299987792969</v>
@@ -814,7 +814,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>298.882080078125</v>
+        <v>304.4422912597656</v>
       </c>
       <c r="C35" t="n">
         <v>296.5599975585938</v>
@@ -825,7 +825,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>297.5609436035156</v>
+        <v>303.1553039550781</v>
       </c>
       <c r="C36" t="n">
         <v>301.5899963378906</v>
@@ -836,7 +836,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>298.5462646484375</v>
+        <v>304.1649780273438</v>
       </c>
       <c r="C37" t="n">
         <v>303.2099914550781</v>
@@ -847,7 +847,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>300.3887939453125</v>
+        <v>305.8427124023438</v>
       </c>
       <c r="C38" t="n">
         <v>304.75</v>
@@ -858,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>302.2764282226562</v>
+        <v>307.5470275878906</v>
       </c>
       <c r="C39" t="n">
         <v>305.739990234375</v>
@@ -869,7 +869,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>303.8153076171875</v>
+        <v>308.9667053222656</v>
       </c>
       <c r="C40" t="n">
         <v>311.489990234375</v>
@@ -880,7 +880,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>307.0831909179688</v>
+        <v>312.09228515625</v>
       </c>
       <c r="C41" t="n">
         <v>316.2300109863281</v>
@@ -891,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>311.4506530761719</v>
+        <v>316.1632995605469</v>
       </c>
       <c r="C42" t="n">
         <v>316.3200073242188</v>
@@ -902,7 +902,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>314.3583679199219</v>
+        <v>318.7937927246094</v>
       </c>
       <c r="C43" t="n">
         <v>325.5400085449219</v>
@@ -913,7 +913,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>319.5468444824219</v>
+        <v>323.7462768554688</v>
       </c>
       <c r="C44" t="n">
         <v>326.2300109863281</v>
@@ -924,7 +924,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>323.6104431152344</v>
+        <v>327.4556579589844</v>
       </c>
       <c r="C45" t="n">
         <v>322.9200134277344</v>
@@ -935,7 +935,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>324.4810791015625</v>
+        <v>328.2225341796875</v>
       </c>
       <c r="C46" t="n">
         <v>328</v>
@@ -946,7 +946,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>326.3262939453125</v>
+        <v>330.13720703125</v>
       </c>
       <c r="C47" t="n">
         <v>326.7000122070312</v>
@@ -957,7 +957,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>327.3117065429688</v>
+        <v>331.0965270996094</v>
       </c>
       <c r="C48" t="n">
         <v>326.2699890136719</v>
@@ -968,7 +968,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>327.5237426757812</v>
+        <v>331.3422546386719</v>
       </c>
       <c r="C49" t="n">
         <v>324.7900085449219</v>
@@ -979,7 +979,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>326.8966064453125</v>
+        <v>330.8239440917969</v>
       </c>
       <c r="C50" t="n">
         <v>326.510009765625</v>
@@ -990,7 +990,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>327.0051574707031</v>
+        <v>331.0244445800781</v>
       </c>
       <c r="C51" t="n">
         <v>327.739990234375</v>
@@ -1001,7 +1001,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>327.7720336914062</v>
+        <v>331.7597045898438</v>
       </c>
       <c r="C52" t="n">
         <v>328.2999877929688</v>
@@ -1012,7 +1012,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>328.6137390136719</v>
+        <v>332.5120544433594</v>
       </c>
       <c r="C53" t="n">
         <v>326.1099853515625</v>
@@ -1023,7 +1023,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>328.2659606933594</v>
+        <v>332.1495056152344</v>
       </c>
       <c r="C54" t="n">
         <v>325.7799987792969</v>
@@ -1034,7 +1034,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>327.6160278320312</v>
+        <v>331.5934753417969</v>
       </c>
       <c r="C55" t="n">
         <v>327.6000061035156</v>
@@ -1045,7 +1045,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>327.8958129882812</v>
+        <v>331.9176025390625</v>
       </c>
       <c r="C56" t="n">
         <v>327.5700073242188</v>
@@ -1056,7 +1056,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>328.3038024902344</v>
+        <v>332.274658203125</v>
       </c>
       <c r="C57" t="n">
         <v>326.1400146484375</v>
@@ -1067,7 +1067,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>327.9917602539062</v>
+        <v>331.9481811523438</v>
       </c>
       <c r="C58" t="n">
         <v>324.8200073242188</v>
@@ -1078,7 +1078,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>327.0827026367188</v>
+        <v>331.119384765625</v>
       </c>
       <c r="C59" t="n">
         <v>325.5299987792969</v>
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>326.6688537597656</v>
+        <v>330.7896423339844</v>
       </c>
       <c r="C60" t="n">
         <v>329.3200073242188</v>
@@ -1100,7 +1100,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>328.0631103515625</v>
+        <v>332.1164855957031</v>
       </c>
       <c r="C61" t="n">
         <v>339.7900085449219</v>
@@ -1111,7 +1111,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>333.502685546875</v>
+        <v>337.1575622558594</v>
       </c>
       <c r="C62" t="n">
         <v>339.9700012207031</v>
@@ -1122,7 +1122,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>337.9210205078125</v>
+        <v>340.9776000976562</v>
       </c>
       <c r="C63" t="n">
         <v>343.3099975585938</v>
@@ -1133,7 +1133,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>341.6324462890625</v>
+        <v>344.2992553710938</v>
       </c>
       <c r="C64" t="n">
         <v>340.9100036621094</v>
@@ -1144,7 +1144,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>342.9434509277344</v>
+        <v>345.4568481445312</v>
       </c>
       <c r="C65" t="n">
         <v>340</v>
@@ -1155,7 +1155,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>342.8659057617188</v>
+        <v>345.4781494140625</v>
       </c>
       <c r="C66" t="n">
         <v>332.4299926757812</v>
@@ -1166,7 +1166,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>339.6381530761719</v>
+        <v>342.5927734375</v>
       </c>
       <c r="C67" t="n">
         <v>336.760009765625</v>
@@ -1177,7 +1177,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>338.4581298828125</v>
+        <v>341.7815551757812</v>
       </c>
       <c r="C68" t="n">
         <v>335.7000122070312</v>
@@ -1188,7 +1188,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>337.932373046875</v>
+        <v>341.3392944335938</v>
       </c>
       <c r="C69" t="n">
         <v>336.2799987792969</v>
@@ -1199,7 +1199,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>337.9197387695312</v>
+        <v>341.3002319335938</v>
       </c>
       <c r="C70" t="n">
         <v>339.9599914550781</v>
@@ -1210,7 +1210,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>339.4287414550781</v>
+        <v>342.6795349121094</v>
       </c>
       <c r="C71" t="n">
         <v>340.75</v>
@@ -1221,7 +1221,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>341.0646667480469</v>
+        <v>344.0935363769531</v>
       </c>
       <c r="C72" t="n">
         <v>340.8999938964844</v>
@@ -1232,7 +1232,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>342.1517028808594</v>
+        <v>345.0215454101562</v>
       </c>
       <c r="C73" t="n">
         <v>340.8699951171875</v>
@@ -1243,7 +1243,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>342.69287109375</v>
+        <v>345.5071105957031</v>
       </c>
       <c r="C74" t="n">
         <v>344.6099853515625</v>
@@ -1254,7 +1254,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>344.3493957519531</v>
+        <v>347.0850524902344</v>
       </c>
       <c r="C75" t="n">
         <v>344.1300048828125</v>
@@ -1265,7 +1265,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>345.5436096191406</v>
+        <v>348.1329956054688</v>
       </c>
       <c r="C76" t="n">
         <v>344.7099914550781</v>
@@ -1276,7 +1276,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>346.3787841796875</v>
+        <v>348.8870544433594</v>
       </c>
       <c r="C77" t="n">
         <v>344.2699890136719</v>
@@ -1287,7 +1287,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>346.6723327636719</v>
+        <v>349.1658935546875</v>
       </c>
       <c r="C78" t="n">
         <v>346.3599853515625</v>
@@ -1298,7 +1298,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>347.5249938964844</v>
+        <v>350.0006103515625</v>
       </c>
       <c r="C79" t="n">
         <v>348.3699951171875</v>
@@ -1309,7 +1309,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>348.9986877441406</v>
+        <v>351.3602905273438</v>
       </c>
       <c r="C80" t="n">
         <v>347.6600036621094</v>
@@ -1320,7 +1320,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>349.8322143554688</v>
+        <v>352.0709838867188</v>
       </c>
       <c r="C81" t="n">
         <v>351.3800048828125</v>
@@ -1331,7 +1331,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>351.5710754394531</v>
+        <v>353.6931762695312</v>
       </c>
       <c r="C82" t="n">
         <v>358.8599853515625</v>
@@ -1342,7 +1342,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>355.7253723144531</v>
+        <v>357.5141296386719</v>
       </c>
       <c r="C83" t="n">
         <v>348.2999877929688</v>
@@ -1353,7 +1353,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>355.1585083007812</v>
+        <v>356.7362976074219</v>
       </c>
       <c r="C84" t="n">
         <v>346.5700073242188</v>
@@ -1364,7 +1364,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>352.8020629882812</v>
+        <v>354.6941223144531</v>
       </c>
       <c r="C85" t="n">
         <v>338.8599853515625</v>
@@ -1375,7 +1375,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>348.0472412109375</v>
+        <v>350.5131225585938</v>
       </c>
       <c r="C86" t="n">
         <v>346.4299926757812</v>
@@ -1386,7 +1386,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>347.2138977050781</v>
+        <v>350.0651550292969</v>
       </c>
       <c r="C87" t="n">
         <v>339.5299987792969</v>
@@ -1397,7 +1397,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>345.2041320800781</v>
+        <v>348.1236877441406</v>
       </c>
       <c r="C88" t="n">
         <v>339.1300048828125</v>
@@ -1408,7 +1408,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>343.2941589355469</v>
+        <v>346.3626098632812</v>
       </c>
       <c r="C89" t="n">
         <v>342.9200134277344</v>
@@ -1419,7 +1419,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>343.5524291992188</v>
+        <v>346.6477661132812</v>
       </c>
       <c r="C90" t="n">
         <v>343.9100036621094</v>
@@ -1430,7 +1430,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>344.6638793945312</v>
+        <v>347.5761108398438</v>
       </c>
       <c r="C91" t="n">
         <v>343.7300109863281</v>
@@ -1441,7 +1441,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>345.4576416015625</v>
+        <v>348.1844482421875</v>
       </c>
       <c r="C92" t="n">
         <v>338.8800048828125</v>
@@ -1452,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>344.011474609375</v>
+        <v>346.7681884765625</v>
       </c>
       <c r="C93" t="n">
         <v>335.9599914550781</v>
@@ -1463,7 +1463,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>341.3849487304688</v>
+        <v>344.4280700683594</v>
       </c>
       <c r="C94" t="n">
         <v>339.5700073242188</v>
@@ -1474,7 +1474,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>340.8461303710938</v>
+        <v>344.0927734375</v>
       </c>
       <c r="C95" t="n">
         <v>344.4500122070312</v>
@@ -1485,7 +1485,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>342.9603576660156</v>
+        <v>346.0464477539062</v>
       </c>
       <c r="C96" t="n">
         <v>344.6300048828125</v>
@@ -1496,7 +1496,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>344.9944458007812</v>
+        <v>347.7403564453125</v>
       </c>
       <c r="C97" t="n">
         <v>347</v>
@@ -1507,7 +1507,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>347.0825500488281</v>
+        <v>349.5638732910156</v>
       </c>
       <c r="C98" t="n">
         <v>342.5799865722656</v>
@@ -1518,7 +1518,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>346.7775268554688</v>
+        <v>349.1880798339844</v>
       </c>
       <c r="C99" t="n">
         <v>349.6199951171875</v>
@@ -1529,7 +1529,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>348.6135559082031</v>
+        <v>351.0164184570312</v>
       </c>
       <c r="C100" t="n">
         <v>352.1400146484375</v>
@@ -1540,7 +1540,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>351.3880920410156</v>
+        <v>353.5338745117188</v>
       </c>
       <c r="C101" t="n">
         <v>355</v>
@@ -1551,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>354.4273681640625</v>
+        <v>356.2289428710938</v>
       </c>
       <c r="C102" t="n">
         <v>358.4599914550781</v>
@@ -1562,7 +1562,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>357.7075500488281</v>
+        <v>359.1638488769531</v>
       </c>
       <c r="C103" t="n">
         <v>355.010009765625</v>
@@ -1573,7 +1573,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>358.6543579101562</v>
+        <v>359.9207458496094</v>
       </c>
       <c r="C104" t="n">
         <v>358.5799865722656</v>
@@ -1584,7 +1584,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>359.9476928710938</v>
+        <v>361.1958618164062</v>
       </c>
       <c r="C105" t="n">
         <v>358.3500061035156</v>
@@ -1595,7 +1595,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>360.8939514160156</v>
+        <v>362.0911865234375</v>
       </c>
       <c r="C106" t="n">
         <v>363.0199890136719</v>
@@ -1606,7 +1606,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>363.1016845703125</v>
+        <v>364.1614379882812</v>
       </c>
       <c r="C107" t="n">
         <v>365.0899963378906</v>
@@ -1617,7 +1617,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>365.6487426757812</v>
+        <v>366.4334716796875</v>
       </c>
       <c r="C108" t="n">
         <v>369.4599914550781</v>
@@ -1628,7 +1628,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>368.9291687011719</v>
+        <v>369.3699645996094</v>
       </c>
       <c r="C109" t="n">
         <v>376.4800109863281</v>
@@ -1639,7 +1639,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>373.7384033203125</v>
+        <v>373.6874694824219</v>
       </c>
       <c r="C110" t="n">
         <v>380.6799926757812</v>
@@ -1650,7 +1650,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>378.7756958007812</v>
+        <v>378.1020202636719</v>
       </c>
       <c r="C111" t="n">
         <v>378.3399963378906</v>
@@ -1661,7 +1661,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>381.3858947753906</v>
+        <v>380.2684020996094</v>
       </c>
       <c r="C112" t="n">
         <v>376.5799865722656</v>
@@ -1672,7 +1672,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>381.8807678222656</v>
+        <v>380.7066955566406</v>
       </c>
       <c r="C113" t="n">
         <v>381.5400085449219</v>
@@ -1683,7 +1683,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>383.3629455566406</v>
+        <v>382.2182312011719</v>
       </c>
       <c r="C114" t="n">
         <v>375.5599975585938</v>
@@ -1694,7 +1694,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>382.7507934570312</v>
+        <v>381.6529235839844</v>
       </c>
       <c r="C115" t="n">
         <v>378.3099975585938</v>
@@ -1705,7 +1705,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>382.6095275878906</v>
+        <v>381.6641845703125</v>
       </c>
       <c r="C116" t="n">
         <v>377.8200073242188</v>
@@ -1716,7 +1716,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>382.5556945800781</v>
+        <v>381.6811218261719</v>
       </c>
       <c r="C117" t="n">
         <v>375.75</v>
@@ -1727,7 +1727,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>381.8384704589844</v>
+        <v>381.0468444824219</v>
       </c>
       <c r="C118" t="n">
         <v>374.6000061035156</v>
@@ -1738,7 +1738,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>380.7584838867188</v>
+        <v>380.1219177246094</v>
       </c>
       <c r="C119" t="n">
         <v>370.7099914550781</v>
@@ -1749,7 +1749,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>378.6212768554688</v>
+        <v>378.2362060546875</v>
       </c>
       <c r="C120" t="n">
         <v>372.7200012207031</v>
@@ -1760,7 +1760,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>377.5518493652344</v>
+        <v>377.3985900878906</v>
       </c>
       <c r="C121" t="n">
         <v>364.9599914550781</v>
@@ -1771,7 +1771,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>374.5169067382812</v>
+        <v>374.6285705566406</v>
       </c>
       <c r="C122" t="n">
         <v>364.8599853515625</v>
@@ -1782,7 +1782,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>371.8072204589844</v>
+        <v>372.3006286621094</v>
       </c>
       <c r="C123" t="n">
         <v>357.6199951171875</v>
@@ -1793,7 +1793,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>367.5987243652344</v>
+        <v>368.5315856933594</v>
       </c>
       <c r="C124" t="n">
         <v>364.3900146484375</v>
@@ -1804,7 +1804,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>366.7205810546875</v>
+        <v>367.9236755371094</v>
       </c>
       <c r="C125" t="n">
         <v>371.9599914550781</v>
@@ -1815,7 +1815,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>369.7938537597656</v>
+        <v>370.6910095214844</v>
       </c>
       <c r="C126" t="n">
         <v>376.1700134277344</v>
@@ -1826,7 +1826,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>374.2716369628906</v>
+        <v>374.4763793945312</v>
       </c>
       <c r="C127" t="n">
         <v>385.2300109863281</v>
@@ -1837,7 +1837,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>380.5781860351562</v>
+        <v>379.9499206542969</v>
       </c>
       <c r="C128" t="n">
         <v>385.6600036621094</v>
@@ -1848,7 +1848,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>385.4061584472656</v>
+        <v>383.9833679199219</v>
       </c>
       <c r="C129" t="n">
         <v>365</v>
@@ -1859,7 +1859,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>381.3367614746094</v>
+        <v>380.0057067871094</v>
       </c>
       <c r="C130" t="n">
         <v>366.6199951171875</v>
@@ -1870,7 +1870,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>376.5298461914062</v>
+        <v>376.1083984375</v>
       </c>
       <c r="C131" t="n">
         <v>372.9200134277344</v>
@@ -1881,7 +1881,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>375.5289306640625</v>
+        <v>375.6620483398438</v>
       </c>
       <c r="C132" t="n">
         <v>375.7099914550781</v>
@@ -1892,7 +1892,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>376.9781188964844</v>
+        <v>377.0073852539062</v>
       </c>
       <c r="C133" t="n">
         <v>378.8399963378906</v>
@@ -1903,7 +1903,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>379.5617980957031</v>
+        <v>379.1836242675781</v>
       </c>
       <c r="C134" t="n">
         <v>379.7900085449219</v>
@@ -1914,7 +1914,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>381.8381042480469</v>
+        <v>381.0485229492188</v>
       </c>
       <c r="C135" t="n">
         <v>381.9200134277344</v>
@@ -1925,7 +1925,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>383.9621276855469</v>
+        <v>382.8637084960938</v>
       </c>
       <c r="C136" t="n">
         <v>382.2300109863281</v>
@@ -1936,7 +1936,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>385.4830627441406</v>
+        <v>384.1668395996094</v>
       </c>
       <c r="C137" t="n">
         <v>383.5400085449219</v>
@@ -1947,7 +1947,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>386.7933044433594</v>
+        <v>385.3360595703125</v>
       </c>
       <c r="C138" t="n">
         <v>381.1199951171875</v>
@@ -1958,7 +1958,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>386.860107421875</v>
+        <v>385.3723754882812</v>
       </c>
       <c r="C139" t="n">
         <v>381.7099914550781</v>
@@ -1969,7 +1969,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>386.7464599609375</v>
+        <v>385.3385925292969</v>
       </c>
       <c r="C140" t="n">
         <v>384.2200012207031</v>
@@ -1980,7 +1980,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>387.486083984375</v>
+        <v>386.0832824707031</v>
       </c>
       <c r="C141" t="n">
         <v>387.75</v>
@@ -1991,7 +1991,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>389.4065856933594</v>
+        <v>387.818115234375</v>
       </c>
       <c r="C142" t="n">
         <v>388.3900146484375</v>
@@ -2002,7 +2002,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>391.2441711425781</v>
+        <v>389.3717041015625</v>
       </c>
       <c r="C143" t="n">
         <v>391.7699890136719</v>
@@ -2013,7 +2013,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>393.5242919921875</v>
+        <v>391.3615417480469</v>
       </c>
       <c r="C144" t="n">
         <v>387.5599975585938</v>
@@ -2024,7 +2024,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>393.8843688964844</v>
+        <v>391.5646362304688</v>
       </c>
       <c r="C145" t="n">
         <v>383.5</v>
@@ -2035,7 +2035,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>392.2458801269531</v>
+        <v>390.1133117675781</v>
       </c>
       <c r="C146" t="n">
         <v>374.0499877929688</v>
@@ -2046,7 +2046,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>387.4955139160156</v>
+        <v>385.9671936035156</v>
       </c>
       <c r="C147" t="n">
         <v>373.4299926757812</v>
@@ -2057,7 +2057,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>383.1135864257812</v>
+        <v>382.3581848144531</v>
       </c>
       <c r="C148" t="n">
         <v>373.3299865722656</v>
@@ -2068,7 +2068,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>380.2983703613281</v>
+        <v>380.0522155761719</v>
       </c>
       <c r="C149" t="n">
         <v>377.6000061035156</v>
@@ -2079,7 +2079,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>380.2750549316406</v>
+        <v>380.10693359375</v>
       </c>
       <c r="C150" t="n">
         <v>374.2900085449219</v>
@@ -2090,7 +2090,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>379.8914184570312</v>
+        <v>379.5911254882812</v>
       </c>
       <c r="C151" t="n">
         <v>372.7900085449219</v>
@@ -2101,7 +2101,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>378.9035339355469</v>
+        <v>378.6027221679688</v>
       </c>
       <c r="C152" t="n">
         <v>375.1000061035156</v>
@@ -2112,7 +2112,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>378.8440856933594</v>
+        <v>378.5675354003906</v>
       </c>
       <c r="C153" t="n">
         <v>374.3800048828125</v>
@@ -2123,7 +2123,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>378.8571472167969</v>
+        <v>378.5324401855469</v>
       </c>
       <c r="C154" t="n">
         <v>371.8800048828125</v>
@@ -2134,7 +2134,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>378.0078430175781</v>
+        <v>377.7079162597656</v>
       </c>
       <c r="C155" t="n">
         <v>369.4400024414062</v>
@@ -2145,7 +2145,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>376.3424682617188</v>
+        <v>376.2170715332031</v>
       </c>
       <c r="C156" t="n">
         <v>370.2900085449219</v>
@@ -2156,7 +2156,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>375.2995300292969</v>
+        <v>375.362060546875</v>
       </c>
       <c r="C157" t="n">
         <v>367</v>
@@ -2167,7 +2167,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>373.6737976074219</v>
+        <v>373.8943176269531</v>
       </c>
       <c r="C158" t="n">
         <v>364.9700012207031</v>
@@ -2178,7 +2178,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>371.6795349121094</v>
+        <v>372.1216125488281</v>
       </c>
       <c r="C159" t="n">
         <v>362.0299987792969</v>
@@ -2189,7 +2189,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>369.2163696289062</v>
+        <v>369.9346008300781</v>
       </c>
       <c r="C160" t="n">
         <v>361.8900146484375</v>
@@ -2200,7 +2200,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>367.3897399902344</v>
+        <v>368.3538208007812</v>
       </c>
       <c r="C161" t="n">
         <v>364.5799865722656</v>
@@ -2211,7 +2211,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>367.3148498535156</v>
+        <v>368.3261108398438</v>
       </c>
       <c r="C162" t="n">
         <v>371.0599975585938</v>
@@ -2222,7 +2222,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>370.0107116699219</v>
+        <v>370.7338256835938</v>
       </c>
       <c r="C163" t="n">
         <v>372.7200012207031</v>
@@ -2233,7 +2233,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>373.083251953125</v>
+        <v>373.3050842285156</v>
       </c>
       <c r="C164" t="n">
         <v>374.4500122070312</v>
@@ -2244,7 +2244,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>375.7377624511719</v>
+        <v>375.5307922363281</v>
       </c>
       <c r="C165" t="n">
         <v>376.7799987792969</v>
@@ -2255,7 +2255,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>378.1872863769531</v>
+        <v>377.6613159179688</v>
       </c>
       <c r="C166" t="n">
         <v>380.1499938964844</v>
@@ -2266,7 +2266,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>380.9451904296875</v>
+        <v>380.1170349121094</v>
       </c>
       <c r="C167" t="n">
         <v>375.739990234375</v>
@@ -2277,7 +2277,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>381.4345397949219</v>
+        <v>380.4506530761719</v>
       </c>
       <c r="C168" t="n">
         <v>370.0199890136719</v>
@@ -2288,7 +2288,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>379.1786193847656</v>
+        <v>378.4457092285156</v>
       </c>
       <c r="C169" t="n">
         <v>367.9200134277344</v>
@@ -2299,7 +2299,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>376.2007446289062</v>
+        <v>375.9737854003906</v>
       </c>
       <c r="C170" t="n">
         <v>369.9400024414062</v>
@@ -2310,7 +2310,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>374.7659912109375</v>
+        <v>374.9060668945312</v>
       </c>
       <c r="C171" t="n">
         <v>364.010009765625</v>
@@ -2321,7 +2321,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>372.2257690429688</v>
+        <v>372.6134643554688</v>
       </c>
       <c r="C172" t="n">
         <v>364.2000122070312</v>
@@ -2332,7 +2332,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>370.1910095214844</v>
+        <v>370.8521423339844</v>
       </c>
       <c r="C173" t="n">
         <v>366.9500122070312</v>
@@ -2343,7 +2343,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>369.9597778320312</v>
+        <v>370.7067260742188</v>
       </c>
       <c r="C174" t="n">
         <v>362.3500061035156</v>
@@ -2354,7 +2354,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>368.6869201660156</v>
+        <v>369.4431762695312</v>
       </c>
       <c r="C175" t="n">
         <v>362.1600036621094</v>
@@ -2365,7 +2365,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>367.40087890625</v>
+        <v>368.2765197753906</v>
       </c>
       <c r="C176" t="n">
         <v>354.4700012207031</v>
@@ -2376,7 +2376,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>363.8331298828125</v>
+        <v>365.0100402832031</v>
       </c>
       <c r="C177" t="n">
         <v>361.2999877929688</v>
@@ -2387,7 +2387,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>363.2528686523438</v>
+        <v>364.679443359375</v>
       </c>
       <c r="C178" t="n">
         <v>362.7999877929688</v>
@@ -2398,7 +2398,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>364.3230285644531</v>
+        <v>365.612060546875</v>
       </c>
       <c r="C179" t="n">
         <v>362.2999877929688</v>
@@ -2409,7 +2409,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>365.2070922851562</v>
+        <v>366.2550354003906</v>
       </c>
       <c r="C180" t="n">
         <v>361.8800048828125</v>
@@ -2420,7 +2420,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>365.5231628417969</v>
+        <v>366.4476013183594</v>
       </c>
       <c r="C181" t="n">
         <v>364.9800109863281</v>
@@ -2431,7 +2431,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>366.6829833984375</v>
+        <v>367.5101623535156</v>
       </c>
       <c r="C182" t="n">
         <v>356.3900146484375</v>
@@ -2442,7 +2442,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>364.662353515625</v>
+        <v>365.5592346191406</v>
       </c>
       <c r="C183" t="n">
         <v>357.0599975585938</v>
@@ -2453,7 +2453,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>362.6366882324219</v>
+        <v>363.8587646484375</v>
       </c>
       <c r="C184" t="n">
         <v>352.4299926757812</v>
@@ -2464,7 +2464,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>359.7279052734375</v>
+        <v>361.2988891601562</v>
       </c>
       <c r="C185" t="n">
         <v>350.5199890136719</v>
@@ -2475,7 +2475,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>356.8629455566406</v>
+        <v>358.7910766601562</v>
       </c>
       <c r="C186" t="n">
         <v>355.5799865722656</v>
@@ -2486,7 +2486,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>356.8607482910156</v>
+        <v>358.9036865234375</v>
       </c>
       <c r="C187" t="n">
         <v>355.2099914550781</v>
@@ -2497,7 +2497,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>357.5038452148438</v>
+        <v>359.3779602050781</v>
       </c>
       <c r="C188" t="n">
         <v>355.8500061035156</v>
@@ -2508,7 +2508,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>358.2286682128906</v>
+        <v>359.9210510253906</v>
       </c>
       <c r="C189" t="n">
         <v>355.1700134277344</v>
@@ -2519,7 +2519,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>358.4483642578125</v>
+        <v>360.0440063476562</v>
       </c>
       <c r="C190" t="n">
         <v>359.8299865722656</v>
@@ -2530,7 +2530,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>360.1490173339844</v>
+        <v>361.6190490722656</v>
       </c>
       <c r="C191" t="n">
         <v>359.5599975585938</v>
@@ -2541,7 +2541,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>361.5931701660156</v>
+        <v>362.8458557128906</v>
       </c>
       <c r="C192" t="n">
         <v>356.1199951171875</v>
@@ -2552,7 +2552,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>361.1895141601562</v>
+        <v>362.3931274414062</v>
       </c>
       <c r="C193" t="n">
         <v>352.2000122070312</v>
@@ -2563,7 +2563,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>359.001953125</v>
+        <v>360.4429321289062</v>
       </c>
       <c r="C194" t="n">
         <v>352.75</v>
@@ -2574,7 +2574,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>357.3291931152344</v>
+        <v>359.0816040039062</v>
       </c>
       <c r="C195" t="n">
         <v>354</v>
@@ -2585,7 +2585,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>356.8944396972656</v>
+        <v>358.7735900878906</v>
       </c>
       <c r="C196" t="n">
         <v>358.0400085449219</v>
@@ -2596,7 +2596,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>358.4036865234375</v>
+        <v>360.1515808105469</v>
       </c>
       <c r="C197" t="n">
         <v>356.9200134277344</v>
@@ -2607,7 +2607,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>359.4622192382812</v>
+        <v>360.9737548828125</v>
       </c>
       <c r="C198" t="n">
         <v>354.7699890136719</v>
@@ -2618,7 +2618,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>359.1844482421875</v>
+        <v>360.634765625</v>
       </c>
       <c r="C199" t="n">
         <v>350.2099914550781</v>
@@ -2629,7 +2629,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>356.9868774414062</v>
+        <v>358.6410217285156</v>
       </c>
       <c r="C200" t="n">
         <v>342.1499938964844</v>
@@ -2640,7 +2640,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>352.0853881835938</v>
+        <v>354.2586364746094</v>
       </c>
       <c r="C201" t="n">
         <v>340.7000122070312</v>
@@ -2651,7 +2651,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>347.6360168457031</v>
+        <v>350.4278869628906</v>
       </c>
       <c r="C202" t="n">
         <v>333.8999938964844</v>
@@ -2662,7 +2662,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>342.3728942871094</v>
+        <v>345.6959533691406</v>
       </c>
       <c r="C203" t="n">
         <v>331</v>
@@ -2673,7 +2673,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>337.6023864746094</v>
+        <v>341.3973999023438</v>
       </c>
       <c r="C204" t="n">
         <v>331.7699890136719</v>
@@ -2684,7 +2684,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>334.98046875</v>
+        <v>339.0230712890625</v>
       </c>
       <c r="C205" t="n">
         <v>328.4599914550781</v>
@@ -2695,7 +2695,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>332.5513610839844</v>
+        <v>336.6598815917969</v>
       </c>
       <c r="C206" t="n">
         <v>323.9200134277344</v>
@@ -2706,7 +2706,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>329.1816101074219</v>
+        <v>333.4345397949219</v>
       </c>
       <c r="C207" t="n">
         <v>319.0400085449219</v>
@@ -2717,7 +2717,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>324.8428955078125</v>
+        <v>329.3921203613281</v>
       </c>
       <c r="C208" t="n">
         <v>317.3200073242188</v>
@@ -2728,7 +2728,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>321.19873046875</v>
+        <v>326.0517578125</v>
       </c>
       <c r="C209" t="n">
         <v>311.4200134277344</v>
@@ -2739,7 +2739,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>316.7275695800781</v>
+        <v>321.8406372070312</v>
       </c>
       <c r="C210" t="n">
         <v>318.7799987792969</v>
@@ -2750,7 +2750,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>316.7190856933594</v>
+        <v>321.89404296875</v>
       </c>
       <c r="C211" t="n">
         <v>323.8299865722656</v>
@@ -2761,7 +2761,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>319.8765563964844</v>
+        <v>324.6709289550781</v>
       </c>
       <c r="C212" t="n">
         <v>328.6499938964844</v>
@@ -2772,7 +2772,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>324.3877563476562</v>
+        <v>328.6234130859375</v>
       </c>
       <c r="C213" t="n">
         <v>331.1400146484375</v>
@@ -2783,7 +2783,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>328.4036560058594</v>
+        <v>332.1519165039062</v>
       </c>
       <c r="C214" t="n">
         <v>330.510009765625</v>
@@ -2794,7 +2794,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>330.5160522460938</v>
+        <v>334.0060119628906</v>
       </c>
       <c r="C215" t="n">
         <v>327.25</v>
@@ -2805,7 +2805,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>330.1219177246094</v>
+        <v>333.6560974121094</v>
       </c>
       <c r="C216" t="n">
         <v>329.1900024414062</v>
@@ -2816,7 +2816,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>330.0904846191406</v>
+        <v>333.7968444824219</v>
       </c>
       <c r="C217" t="n">
         <v>322.9800109863281</v>
@@ -2827,7 +2827,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>327.7887878417969</v>
+        <v>331.6938171386719</v>
       </c>
       <c r="C218" t="n">
         <v>328.9100036621094</v>
@@ -2838,7 +2838,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>328.1139526367188</v>
+        <v>332.1807250976562</v>
       </c>
       <c r="C219" t="n">
         <v>334.489990234375</v>
@@ -2849,7 +2849,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>331.2509765625</v>
+        <v>335.0982666015625</v>
       </c>
       <c r="C220" t="n">
         <v>340.3399963378906</v>
@@ -2860,7 +2860,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>336.1242370605469</v>
+        <v>339.4750366210938</v>
       </c>
       <c r="C221" t="n">
         <v>338.0400085449219</v>
@@ -2871,7 +2871,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>338.6395568847656</v>
+        <v>341.5716857910156</v>
       </c>
       <c r="C222" t="n">
         <v>346.3399963378906</v>
@@ -2882,7 +2882,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>342.7932434082031</v>
+        <v>345.4661865234375</v>
       </c>
       <c r="C223" t="n">
         <v>352.0199890136719</v>
@@ -2893,7 +2893,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>348.0948181152344</v>
+        <v>350.3201293945312</v>
       </c>
       <c r="C224" t="n">
         <v>356.1499938964844</v>
@@ -2904,7 +2904,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>353.2934875488281</v>
+        <v>354.9832458496094</v>
       </c>
       <c r="C225" t="n">
         <v>349.75</v>
@@ -2915,7 +2915,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>354.2347106933594</v>
+        <v>355.6810302734375</v>
       </c>
       <c r="C226" t="n">
         <v>352.4800109863281</v>
@@ -2926,7 +2926,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>354.7501220703125</v>
+        <v>356.3233642578125</v>
       </c>
       <c r="C227" t="n">
         <v>354.9400024414062</v>
@@ -2937,7 +2937,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>356.030029296875</v>
+        <v>357.6531066894531</v>
       </c>
       <c r="C228" t="n">
         <v>360.8200073242188</v>
@@ -2948,7 +2948,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>359.2462463378906</v>
+        <v>360.6623229980469</v>
       </c>
       <c r="C229" t="n">
         <v>360.1199951171875</v>
@@ -2959,7 +2959,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>361.5851135253906</v>
+        <v>362.6759643554688</v>
       </c>
       <c r="C230" t="n">
         <v>358.8099975585938</v>
@@ -2970,7 +2970,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>362.3491516113281</v>
+        <v>363.3150939941406</v>
       </c>
       <c r="C231" t="n">
         <v>361.2200012207031</v>
@@ -2981,7 +2981,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>363.3193359375</v>
+        <v>364.2828063964844</v>
       </c>
       <c r="C232" t="n">
         <v>363.2099914550781</v>
@@ -2992,7 +2992,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>364.7906799316406</v>
+        <v>365.6718444824219</v>
       </c>
       <c r="C233" t="n">
         <v>364.8099975585938</v>
@@ -3003,7 +3003,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>366.4697570800781</v>
+        <v>367.1885681152344</v>
       </c>
       <c r="C234" t="n">
         <v>365.2099914550781</v>
@@ -3014,7 +3014,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>367.7638244628906</v>
+        <v>368.3284912109375</v>
       </c>
       <c r="C235" t="n">
         <v>363.1700134277344</v>
@@ -3025,7 +3025,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>367.7915344238281</v>
+        <v>368.3283996582031</v>
       </c>
       <c r="C236" t="n">
         <v>368.7999877929688</v>
@@ -3036,7 +3036,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>369.4540100097656</v>
+        <v>369.9462890625</v>
       </c>
       <c r="C237" t="n">
         <v>370.7200012207031</v>
@@ -3047,7 +3047,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>371.7341613769531</v>
+        <v>371.9818115234375</v>
       </c>
       <c r="C238" t="n">
         <v>369.5499877929688</v>
@@ -3058,7 +3058,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>372.9700012207031</v>
+        <v>372.9979858398438</v>
       </c>
       <c r="C239" t="n">
         <v>371.7300109863281</v>
@@ -3069,7 +3069,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>374.2350769042969</v>
+        <v>374.150146484375</v>
       </c>
       <c r="C240" t="n">
         <v>374.0899963378906</v>
@@ -3080,7 +3080,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>375.9435729980469</v>
+        <v>375.7115783691406</v>
       </c>
       <c r="C241" t="n">
         <v>371.260009765625</v>
@@ -3091,7 +3091,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>376.2555847167969</v>
+        <v>375.9322204589844</v>
       </c>
       <c r="C242" t="n">
         <v>373.2799987792969</v>
@@ -3102,7 +3102,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>376.7453918457031</v>
+        <v>376.43359375</v>
       </c>
       <c r="C243" t="n">
         <v>368.5199890136719</v>
@@ -3113,7 +3113,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>375.546630859375</v>
+        <v>375.3437194824219</v>
       </c>
       <c r="C244" t="n">
         <v>370.2099914550781</v>
@@ -3124,7 +3124,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>374.8281555175781</v>
+        <v>374.8157348632812</v>
       </c>
       <c r="C245" t="n">
         <v>369.5899963378906</v>
@@ -3135,7 +3135,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>374.3261108398438</v>
+        <v>374.4159851074219</v>
       </c>
       <c r="C246" t="n">
         <v>373.5400085449219</v>
@@ -3146,7 +3146,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>375.3942565917969</v>
+        <v>375.4274291992188</v>
       </c>
       <c r="C247" t="n">
         <v>372.0899963378906</v>
@@ -3157,7 +3157,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>376.0501708984375</v>
+        <v>375.926025390625</v>
       </c>
       <c r="C248" t="n">
         <v>379.3200073242188</v>
@@ -3168,7 +3168,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>378.7816467285156</v>
+        <v>378.4053955078125</v>
       </c>
       <c r="C249" t="n">
         <v>375.2900085449219</v>
@@ -3179,7 +3179,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>379.8603820800781</v>
+        <v>379.200927734375</v>
       </c>
       <c r="C250" t="n">
         <v>372.5</v>
@@ -3190,7 +3190,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>379.1079406738281</v>
+        <v>378.4750366210938</v>
       </c>
       <c r="C251" t="n">
         <v>382.760009765625</v>
@@ -3201,7 +3201,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>381.5846557617188</v>
+        <v>380.8989868164062</v>
       </c>
       <c r="C252" t="n">
         <v>384.3200073242188</v>
@@ -3212,7 +3212,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>384.7814331054688</v>
+        <v>383.6795349121094</v>
       </c>
       <c r="C253" t="n">
         <v>381.4800109863281</v>
@@ -3223,7 +3223,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>386.1118469238281</v>
+        <v>384.6852722167969</v>
       </c>
       <c r="C254" t="n">
         <v>378.1799926757812</v>
@@ -3234,7 +3234,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>385.3572692871094</v>
+        <v>383.9717407226562</v>
       </c>
       <c r="C255" t="n">
         <v>372.2000122070312</v>
@@ -3245,7 +3245,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>382.3035278320312</v>
+        <v>381.3202819824219</v>
       </c>
       <c r="C256" t="n">
         <v>379.5299987792969</v>
@@ -3256,7 +3256,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>382.0656127929688</v>
+        <v>381.4054565429688</v>
       </c>
       <c r="C257" t="n">
         <v>384.4200134277344</v>
@@ -3267,7 +3267,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>384.451171875</v>
+        <v>383.6000061035156</v>
       </c>
       <c r="C258" t="n">
         <v>383.9599914550781</v>
@@ -3278,7 +3278,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>386.5777587890625</v>
+        <v>385.31689453125</v>
       </c>
       <c r="C259" t="n">
         <v>382.8099975585938</v>
@@ -3289,7 +3289,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>387.4696350097656</v>
+        <v>385.9729919433594</v>
       </c>
       <c r="C260" t="n">
         <v>379.6600036621094</v>
@@ -3300,7 +3300,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>386.6909790039062</v>
+        <v>385.2413635253906</v>
       </c>
       <c r="C261" t="n">
         <v>383.5799865722656</v>
@@ -3311,7 +3311,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>387.0040283203125</v>
+        <v>385.6579284667969</v>
       </c>
       <c r="C262" t="n">
         <v>380.7200012207031</v>
@@ -3322,7 +3322,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>386.6699523925781</v>
+        <v>385.3514404296875</v>
       </c>
       <c r="C263" t="n">
         <v>383.4500122070312</v>
@@ -3333,7 +3333,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>387.1107177734375</v>
+        <v>385.796875</v>
       </c>
       <c r="C264" t="n">
         <v>385.3800048828125</v>
@@ -3344,7 +3344,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>388.290771484375</v>
+        <v>386.8520812988281</v>
       </c>
       <c r="C265" t="n">
         <v>385.6199951171875</v>
@@ -3355,7 +3355,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>389.3693237304688</v>
+        <v>387.7521667480469</v>
       </c>
       <c r="C266" t="n">
         <v>387.5</v>
@@ -3366,7 +3366,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>390.6614074707031</v>
+        <v>388.8751831054688</v>
       </c>
       <c r="C267" t="n">
         <v>378.2699890136719</v>
@@ -3377,7 +3377,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>388.6163635253906</v>
+        <v>386.9260559082031</v>
       </c>
       <c r="C268" t="n">
         <v>378.2300109863281</v>
@@ -3388,7 +3388,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>386.1810302734375</v>
+        <v>384.907470703125</v>
       </c>
       <c r="C269" t="n">
         <v>380.5899963378906</v>
@@ -3399,7 +3399,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>385.2893371582031</v>
+        <v>384.2992858886719</v>
       </c>
       <c r="C270" t="n">
         <v>383.8699951171875</v>
@@ -3410,7 +3410,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>386.2460327148438</v>
+        <v>385.2031860351562</v>
       </c>
       <c r="C271" t="n">
         <v>387.5199890136719</v>
@@ -3421,7 +3421,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>388.5766296386719</v>
+        <v>387.2084045410156</v>
       </c>
       <c r="C272" t="n">
         <v>380.3999938964844</v>
@@ -3432,7 +3432,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>388.1722717285156</v>
+        <v>386.6154479980469</v>
       </c>
       <c r="C273" t="n">
         <v>379.7000122070312</v>
@@ -3443,7 +3443,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>386.8023071289062</v>
+        <v>385.4183349609375</v>
       </c>
       <c r="C274" t="n">
         <v>379.9599914550781</v>
@@ -3454,7 +3454,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>385.7573547363281</v>
+        <v>384.6021118164062</v>
       </c>
       <c r="C275" t="n">
         <v>383.010009765625</v>
@@ -3465,7 +3465,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>386.19140625</v>
+        <v>385.0797119140625</v>
       </c>
       <c r="C276" t="n">
         <v>381.8299865722656</v>
@@ -3476,7 +3476,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>386.5249938964844</v>
+        <v>385.3159484863281</v>
       </c>
       <c r="C277" t="n">
         <v>383.760009765625</v>
@@ -3487,7 +3487,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>387.2994079589844</v>
+        <v>385.9810791015625</v>
       </c>
       <c r="C278" t="n">
         <v>383.9100036621094</v>
@@ -3498,7 +3498,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>388.0075988769531</v>
+        <v>386.5675354003906</v>
       </c>
       <c r="C279" t="n">
         <v>379.4100036621094</v>
@@ -3509,7 +3509,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>386.9851684570312</v>
+        <v>385.5809631347656</v>
       </c>
       <c r="C280" t="n">
         <v>384.75</v>
@@ -3520,7 +3520,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>387.5249938964844</v>
+        <v>386.1883544921875</v>
       </c>
       <c r="C281" t="n">
         <v>380.8800048828125</v>
@@ -3531,7 +3531,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>387.1543884277344</v>
+        <v>385.8047485351562</v>
       </c>
       <c r="C282" t="n">
         <v>386.7999877929688</v>
@@ -3542,7 +3542,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>388.5176086425781</v>
+        <v>387.0915832519531</v>
       </c>
       <c r="C283" t="n">
         <v>392.1799926757812</v>
@@ -3553,7 +3553,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>391.7309875488281</v>
+        <v>389.9371337890625</v>
       </c>
       <c r="C284" t="n">
         <v>391.9700012207031</v>
@@ -3564,7 +3564,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>394.3490905761719</v>
+        <v>392.086669921875</v>
       </c>
       <c r="C285" t="n">
         <v>392.0700073242188</v>
@@ -3575,7 +3575,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>395.9438171386719</v>
+        <v>393.3912658691406</v>
       </c>
       <c r="C286" t="n">
         <v>394.510009765625</v>
@@ -3586,7 +3586,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>397.5385437011719</v>
+        <v>394.8157348632812</v>
       </c>
       <c r="C287" t="n">
         <v>396.5400085449219</v>
@@ -3597,7 +3597,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>399.3284912109375</v>
+        <v>396.4153442382812</v>
       </c>
       <c r="C288" t="n">
         <v>398.7900085449219</v>
@@ -3608,7 +3608,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>401.338623046875</v>
+        <v>398.1879577636719</v>
       </c>
       <c r="C289" t="n">
         <v>395.6700134277344</v>
@@ -3619,7 +3619,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>401.8373413085938</v>
+        <v>398.5508422851562</v>
       </c>
       <c r="C290" t="n">
         <v>394.5299987792969</v>
@@ -3630,7 +3630,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>401.3660278320312</v>
+        <v>398.1640625</v>
       </c>
       <c r="C291" t="n">
         <v>398.9400024414062</v>
@@ -3641,7 +3641,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>402.1576232910156</v>
+        <v>399.0068664550781</v>
       </c>
       <c r="C292" t="n">
         <v>398.8599853515625</v>
@@ -3652,7 +3652,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>403.11669921875</v>
+        <v>399.8542785644531</v>
       </c>
       <c r="C293" t="n">
         <v>404.6799926757812</v>
@@ -3663,7 +3663,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>405.5704956054688</v>
+        <v>402.0460815429688</v>
       </c>
       <c r="C294" t="n">
         <v>407.1499938964844</v>
@@ -3674,7 +3674,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>408.4765319824219</v>
+        <v>404.5220947265625</v>
       </c>
       <c r="C295" t="n">
         <v>412.3699951171875</v>
@@ -3685,7 +3685,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>412.1526489257812</v>
+        <v>407.6820373535156</v>
       </c>
       <c r="C296" t="n">
         <v>407.8800048828125</v>
@@ -3696,7 +3696,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>413.6476745605469</v>
+        <v>408.7976379394531</v>
       </c>
       <c r="C297" t="n">
         <v>407.0599975585938</v>
@@ -3707,7 +3707,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>413.7709045410156</v>
+        <v>408.8896789550781</v>
       </c>
       <c r="C298" t="n">
         <v>409.9500122070312</v>
@@ -3718,7 +3718,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>414.3562316894531</v>
+        <v>409.5307312011719</v>
       </c>
       <c r="C299" t="n">
         <v>411.8200073242188</v>
@@ -3729,7 +3729,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>415.5265197753906</v>
+        <v>410.62646484375</v>
       </c>
       <c r="C300" t="n">
         <v>410.3699951171875</v>
@@ -3740,7 +3740,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>416.1110534667969</v>
+        <v>411.1052856445312</v>
       </c>
       <c r="C301" t="n">
         <v>414.1499938964844</v>
@@ -3751,7 +3751,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>417.4076843261719</v>
+        <v>412.28662109375</v>
       </c>
       <c r="C302" t="n">
         <v>416.239990234375</v>
@@ -3762,7 +3762,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>419.1781921386719</v>
+        <v>413.8279724121094</v>
       </c>
       <c r="C303" t="n">
         <v>415.010009765625</v>
@@ -3773,7 +3773,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>420.2217407226562</v>
+        <v>414.6592102050781</v>
       </c>
       <c r="C304" t="n">
         <v>417.5400085449219</v>
@@ -3784,7 +3784,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>421.4360046386719</v>
+        <v>415.726806640625</v>
       </c>
       <c r="C305" t="n">
         <v>423.4299926757812</v>
@@ -3795,7 +3795,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>424.0407409667969</v>
+        <v>418.0484619140625</v>
       </c>
       <c r="C306" t="n">
         <v>423.2300109863281</v>
@@ -3806,7 +3806,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>426.2989196777344</v>
+        <v>419.9111328125</v>
       </c>
       <c r="C307" t="n">
         <v>424.3399963378906</v>
@@ -3817,7 +3817,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>428.0709533691406</v>
+        <v>421.3770751953125</v>
       </c>
       <c r="C308" t="n">
         <v>422.2200012207031</v>
@@ -3828,7 +3828,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>428.63232421875</v>
+        <v>421.8034057617188</v>
       </c>
       <c r="C309" t="n">
         <v>425.2799987792969</v>
@@ -3839,7 +3839,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>429.5005493164062</v>
+        <v>422.6311645507812</v>
       </c>
       <c r="C310" t="n">
         <v>429.7200012207031</v>
@@ -3850,7 +3850,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>431.4792175292969</v>
+        <v>424.423828125</v>
       </c>
       <c r="C311" t="n">
         <v>428.9200134277344</v>
@@ -3861,7 +3861,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>433.0604248046875</v>
+        <v>425.7241821289062</v>
       </c>
       <c r="C312" t="n">
         <v>435.0700073242188</v>
@@ -3872,7 +3872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>435.6624145507812</v>
+        <v>427.9984436035156</v>
       </c>
       <c r="C313" t="n">
         <v>435.0400085449219</v>
@@ -3883,7 +3883,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>437.9025268554688</v>
+        <v>429.8425903320312</v>
       </c>
       <c r="C314" t="n">
         <v>443.1900024414062</v>
@@ -3894,7 +3894,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>441.4785766601562</v>
+        <v>432.9501342773438</v>
       </c>
       <c r="C315" t="n">
         <v>439.6300048828125</v>
@@ -3905,7 +3905,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>443.6616516113281</v>
+        <v>434.6535339355469</v>
       </c>
       <c r="C316" t="n">
         <v>440.4700012207031</v>
@@ -3916,7 +3916,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>444.9769287109375</v>
+        <v>435.7281494140625</v>
       </c>
       <c r="C317" t="n">
         <v>443.0299987792969</v>
@@ -3927,7 +3927,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>446.3502807617188</v>
+        <v>436.9561157226562</v>
       </c>
       <c r="C318" t="n">
         <v>444.2999877929688</v>
@@ -3938,7 +3938,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>447.7462463378906</v>
+        <v>438.1842041015625</v>
       </c>
       <c r="C319" t="n">
         <v>445.3600158691406</v>
@@ -3949,7 +3949,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>449.0541076660156</v>
+        <v>439.3143310546875</v>
       </c>
       <c r="C320" t="n">
         <v>447.8200073242188</v>
@@ -3960,7 +3960,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>450.5950317382812</v>
+        <v>440.6571655273438</v>
       </c>
       <c r="C321" t="n">
         <v>452.8599853515625</v>
@@ -3971,7 +3971,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>453.0365295410156</v>
+        <v>442.7867736816406</v>
       </c>
       <c r="C322" t="n">
         <v>452.3399963378906</v>
@@ -3982,7 +3982,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>455.0400695800781</v>
+        <v>444.4117126464844</v>
       </c>
       <c r="C323" t="n">
         <v>446.2100219726562</v>
@@ -3993,7 +3993,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>454.9140625</v>
+        <v>444.1555786132812</v>
       </c>
       <c r="C324" t="n">
         <v>454.2599792480469</v>
@@ -4004,7 +4004,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>455.9830932617188</v>
+        <v>445.2337951660156</v>
       </c>
       <c r="C325" t="n">
         <v>458.9900207519531</v>
@@ -4015,7 +4015,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>458.3933715820312</v>
+        <v>447.381591796875</v>
       </c>
       <c r="C326" t="n">
         <v>454.9300231933594</v>
@@ -4026,7 +4026,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>459.7037353515625</v>
+        <v>448.35546875</v>
       </c>
       <c r="C327" t="n">
         <v>451.7900390625</v>
@@ -4037,7 +4037,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>459.5292053222656</v>
+        <v>448.1139526367188</v>
       </c>
       <c r="C328" t="n">
         <v>451.2300109863281</v>
@@ -4048,7 +4048,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>458.7784423828125</v>
+        <v>447.5283813476562</v>
       </c>
       <c r="C329" t="n">
         <v>449.3100280761719</v>
@@ -4059,7 +4059,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>457.6211853027344</v>
+        <v>446.626220703125</v>
       </c>
       <c r="C330" t="n">
         <v>450.3399963378906</v>
@@ -4070,7 +4070,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>456.8635864257812</v>
+        <v>446.1071166992188</v>
       </c>
       <c r="C331" t="n">
         <v>455.9299926757812</v>
@@ -4081,7 +4081,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>457.7499084472656</v>
+        <v>447.0092163085938</v>
       </c>
       <c r="C332" t="n">
         <v>455.489990234375</v>
@@ -4092,7 +4092,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>458.8836669921875</v>
+        <v>447.927978515625</v>
       </c>
       <c r="C333" t="n">
         <v>456.52001953125</v>
@@ -4103,7 +4103,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>459.9937438964844</v>
+        <v>448.8005065917969</v>
       </c>
       <c r="C334" t="n">
         <v>460.9700317382812</v>
@@ -4114,7 +4114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>461.8217163085938</v>
+        <v>450.3460998535156</v>
       </c>
       <c r="C335" t="n">
         <v>462.5500183105469</v>
@@ -4125,7 +4125,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>463.8168029785156</v>
+        <v>451.9724426269531</v>
       </c>
       <c r="C336" t="n">
         <v>459.6000366210938</v>
@@ -4136,7 +4136,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>464.7088317871094</v>
+        <v>452.5882568359375</v>
       </c>
       <c r="C337" t="n">
         <v>465.7000122070312</v>
@@ -4147,7 +4147,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>466.3375244140625</v>
+        <v>454.02099609375</v>
       </c>
       <c r="C338" t="n">
         <v>465.9400024414062</v>
@@ -4158,7 +4158,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>467.9424743652344</v>
+        <v>455.3481750488281</v>
       </c>
       <c r="C339" t="n">
         <v>465.1600341796875</v>
@@ -4169,7 +4169,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>468.9668273925781</v>
+        <v>456.1486511230469</v>
       </c>
       <c r="C340" t="n">
         <v>459.6600036621094</v>
@@ -4180,7 +4180,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>468.3467712402344</v>
+        <v>455.5281982421875</v>
       </c>
       <c r="C341" t="n">
         <v>458.4100036621094</v>
@@ -4191,7 +4191,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>467.0154113769531</v>
+        <v>454.460205078125</v>
       </c>
       <c r="C342" t="n">
         <v>460.72998046875</v>
@@ -4202,7 +4202,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>466.310546875</v>
+        <v>454.0335083007812</v>
       </c>
       <c r="C343" t="n">
         <v>463.3099975585938</v>
@@ -4213,7 +4213,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>466.6036987304688</v>
+        <v>454.4091186523438</v>
       </c>
       <c r="C344" t="n">
         <v>459.510009765625</v>
@@ -4224,7 +4224,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>466.3297424316406</v>
+        <v>454.1256103515625</v>
       </c>
       <c r="C345" t="n">
         <v>451.1400146484375</v>
@@ -4235,7 +4235,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>463.9983215332031</v>
+        <v>452.0386657714844</v>
       </c>
       <c r="C346" t="n">
         <v>452.1099548339844</v>
@@ -4246,7 +4246,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>461.6796569824219</v>
+        <v>450.2069396972656</v>
       </c>
       <c r="C347" t="n">
         <v>452.3299560546875</v>
@@ -4257,7 +4257,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>460.0495300292969</v>
+        <v>448.9781494140625</v>
       </c>
       <c r="C348" t="n">
         <v>452.7799987792969</v>
@@ -4268,7 +4268,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>459.1694030761719</v>
+        <v>448.3151245117188</v>
       </c>
       <c r="C349" t="n">
         <v>467.75</v>
@@ -4279,7 +4279,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>462.1426696777344</v>
+        <v>451.0530090332031</v>
       </c>
       <c r="C350" t="n">
         <v>460.5599670410156</v>
@@ -4290,7 +4290,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>464.1078186035156</v>
+        <v>452.4219970703125</v>
       </c>
       <c r="C351" t="n">
         <v>447.3499755859375</v>
@@ -4301,7 +4301,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>462.1091613769531</v>
+        <v>450.3487854003906</v>
       </c>
       <c r="C352" t="n">
         <v>451.7900390625</v>
@@ -4312,7 +4312,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>460.1780700683594</v>
+        <v>448.841064453125</v>
       </c>
       <c r="C353" t="n">
         <v>449.3499755859375</v>
@@ -4323,7 +4323,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>458.3403015136719</v>
+        <v>447.408203125</v>
       </c>
       <c r="C354" t="n">
         <v>448.3299865722656</v>
@@ -4334,7 +4334,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>456.7489624023438</v>
+        <v>446.1514282226562</v>
       </c>
       <c r="C355" t="n">
         <v>440.1400146484375</v>
@@ -4345,7 +4345,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>453.6820373535156</v>
+        <v>443.5062866210938</v>
       </c>
       <c r="C356" t="n">
         <v>446.2400207519531</v>
@@ -4356,7 +4356,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>452.2619018554688</v>
+        <v>442.5025939941406</v>
       </c>
       <c r="C357" t="n">
         <v>449.3400268554688</v>
@@ -4367,7 +4367,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>452.5872802734375</v>
+        <v>442.8743896484375</v>
       </c>
       <c r="C358" t="n">
         <v>452.8699951171875</v>
@@ -4378,7 +4378,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>454.2206115722656</v>
+        <v>444.2256469726562</v>
       </c>
       <c r="C359" t="n">
         <v>451.8500061035156</v>
@@ -4389,7 +4389,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>455.5826110839844</v>
+        <v>445.2064819335938</v>
       </c>
       <c r="C360" t="n">
         <v>449.7000122070312</v>
@@ -4400,7 +4400,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>455.9519348144531</v>
+        <v>445.3558654785156</v>
       </c>
       <c r="C361" t="n">
         <v>446.8700256347656</v>
@@ -4411,7 +4411,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>455.2257080078125</v>
+        <v>444.6565246582031</v>
       </c>
       <c r="C362" t="n">
         <v>445.2999877929688</v>
@@ -4422,7 +4422,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>453.9582824707031</v>
+        <v>443.6030578613281</v>
       </c>
       <c r="C363" t="n">
         <v>450.6600341796875</v>
@@ -4433,7 +4433,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>454.1296997070312</v>
+        <v>443.9095458984375</v>
       </c>
       <c r="C364" t="n">
         <v>452.3900451660156</v>
@@ -4444,7 +4444,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>455.2024536132812</v>
+        <v>444.8531494140625</v>
       </c>
       <c r="C365" t="n">
         <v>461.9500122070312</v>
@@ -4455,7 +4455,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>458.4843444824219</v>
+        <v>447.7009887695312</v>
       </c>
       <c r="C366" t="n">
         <v>467.0799865722656</v>
@@ -4466,7 +4466,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>462.8251342773438</v>
+        <v>451.2753295898438</v>
       </c>
       <c r="C367" t="n">
         <v>469.7699890136719</v>
@@ -4477,7 +4477,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>466.9618225097656</v>
+        <v>454.5705261230469</v>
       </c>
       <c r="C368" t="n">
         <v>477.2300415039062</v>
@@ -4488,7 +4488,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>471.5822143554688</v>
+        <v>458.3706665039062</v>
       </c>
       <c r="C369" t="n">
         <v>481.9900207519531</v>
@@ -4499,7 +4499,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>476.2677612304688</v>
+        <v>462.1986083984375</v>
       </c>
       <c r="C370" t="n">
         <v>490.1000061035156</v>
@@ -4510,7 +4510,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>481.4927062988281</v>
+        <v>466.5297546386719</v>
       </c>
       <c r="C371" t="n">
         <v>485.530029296875</v>
@@ -4521,7 +4521,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>484.8182678222656</v>
+        <v>469.0596008300781</v>
       </c>
       <c r="C372" t="n">
         <v>489.1100158691406</v>
@@ -4532,7 +4532,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>487.3946838378906</v>
+        <v>471.1576232910156</v>
       </c>
       <c r="C373" t="n">
         <v>490.5299987792969</v>
@@ -4543,7 +4543,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>489.4835815429688</v>
+        <v>472.9107360839844</v>
       </c>
       <c r="C374" t="n">
         <v>491.5400390625</v>
@@ -4554,7 +4554,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>491.1700744628906</v>
+        <v>474.3473205566406</v>
       </c>
       <c r="C375" t="n">
         <v>491.8699951171875</v>
@@ -4565,7 +4565,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>492.4303283691406</v>
+        <v>475.4317932128906</v>
       </c>
       <c r="C376" t="n">
         <v>496.989990234375</v>
@@ -4576,7 +4576,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>494.2192993164062</v>
+        <v>477.0460205078125</v>
       </c>
       <c r="C377" t="n">
         <v>502.3299560546875</v>
@@ -4587,7 +4587,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>496.81005859375</v>
+        <v>479.3081359863281</v>
       </c>
       <c r="C378" t="n">
         <v>515.6199951171875</v>
@@ -4598,7 +4598,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>501.4432678222656</v>
+        <v>483.3319091796875</v>
       </c>
       <c r="C379" t="n">
         <v>513.1199951171875</v>
@@ -4609,7 +4609,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>505.4072265625</v>
+        <v>486.4318237304688</v>
       </c>
       <c r="C380" t="n">
         <v>503.8100280761719</v>
@@ -4620,7 +4620,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>506.6743774414062</v>
+        <v>487.1317443847656</v>
       </c>
       <c r="C381" t="n">
         <v>508.7099914550781</v>
@@ -4631,7 +4631,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>507.4851684570312</v>
+        <v>487.8194274902344</v>
       </c>
       <c r="C382" t="n">
         <v>505.510009765625</v>
@@ -4642,7 +4642,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>507.5507202148438</v>
+        <v>487.8892517089844</v>
       </c>
       <c r="C383" t="n">
         <v>512.1799926757812</v>
@@ -4653,7 +4653,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>508.4364013671875</v>
+        <v>488.8199768066406</v>
       </c>
       <c r="C384" t="n">
         <v>517.1699829101562</v>
@@ -4664,7 +4664,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>510.3195190429688</v>
+        <v>490.5361022949219</v>
       </c>
       <c r="C385" t="n">
         <v>519.8900146484375</v>
@@ -4675,7 +4675,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>512.6238403320312</v>
+        <v>492.4719848632812</v>
       </c>
       <c r="C386" t="n">
         <v>526.719970703125</v>
@@ -4686,7 +4686,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>515.6589965820312</v>
+        <v>495.0169067382812</v>
       </c>
       <c r="C387" t="n">
         <v>526.2899780273438</v>
@@ -4697,7 +4697,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>518.3081665039062</v>
+        <v>497.084716796875</v>
       </c>
       <c r="C388" t="n">
         <v>529.3699951171875</v>
@@ -4708,7 +4708,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>520.7305297851562</v>
+        <v>499.0037536621094</v>
       </c>
       <c r="C389" t="n">
         <v>533.7899780273438</v>
@@ -4719,7 +4719,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>523.2733764648438</v>
+        <v>501.0794067382812</v>
       </c>
       <c r="C390" t="n">
         <v>539.6500244140625</v>
@@ -4730,7 +4730,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>526.24169921875</v>
+        <v>503.5396423339844</v>
       </c>
       <c r="C391" t="n">
         <v>545.260009765625</v>
@@ -4741,7 +4741,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>529.6070556640625</v>
+        <v>506.3054809570312</v>
       </c>
       <c r="C392" t="n">
         <v>549.72998046875</v>
@@ -4752,7 +4752,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>533.1009521484375</v>
+        <v>509.1260986328125</v>
       </c>
       <c r="C393" t="n">
         <v>546.1300048828125</v>
@@ -4763,7 +4763,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>535.5346069335938</v>
+        <v>510.9148559570312</v>
       </c>
       <c r="C394" t="n">
         <v>554.8800048828125</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.395155813840722</v>
+        <v>9.960683973489299</v>
       </c>
     </row>
   </sheetData>
